--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044E87D7-8753-414D-8A17-01E1F35405BA}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D42280-EF9C-4F71-8303-44F5C2588ABE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="855">
   <si>
     <t>id</t>
   </si>
@@ -2612,9 +2612,6 @@
     <t>vége</t>
   </si>
   <si>
-    <t>logo\OneLogoHeader.png</t>
-  </si>
-  <si>
     <t>47.46474150078843</t>
   </si>
   <si>
@@ -2746,6 +2743,21 @@
   </si>
   <si>
     <t>1+3</t>
+  </si>
+  <si>
+    <t>logo\OneLogo.png</t>
+  </si>
+  <si>
+    <t>logo\kkkeLogo.png</t>
+  </si>
+  <si>
+    <t>reviewUrl</t>
+  </si>
+  <si>
+    <t>https://forms.gle/2cZmTwJ8D7Dq5H7k8</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/e/M9RWUkYtjW</t>
   </si>
 </sst>
 </file>
@@ -3044,13 +3056,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3070,7 +3082,7 @@
     <col min="13" max="16384" width="22.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.8">
+    <row r="1" spans="1:15" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3113,8 +3125,11 @@
       <c r="N1" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O1" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>640</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>592</v>
       </c>
@@ -3188,8 +3203,14 @@
       <c r="L3" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N3" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3224,7 +3245,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>365</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>216</v>
       </c>
@@ -3294,7 +3315,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>526</v>
       </c>
@@ -3329,7 +3350,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>567</v>
       </c>
@@ -3370,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>572</v>
       </c>
@@ -3410,8 +3431,11 @@
       <c r="M9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O9" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>440</v>
       </c>
@@ -3448,8 +3472,11 @@
       <c r="L10" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O10" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -3484,7 +3511,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>115</v>
       </c>
@@ -3519,7 +3546,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>141</v>
       </c>
@@ -3554,7 +3581,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>185</v>
       </c>
@@ -3589,7 +3616,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>270</v>
       </c>
@@ -3627,7 +3654,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>322</v>
       </c>
@@ -3662,7 +3689,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>792</v>
       </c>
@@ -3700,10 +3727,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+        <v>850</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>801</v>
       </c>
@@ -3741,10 +3771,13 @@
         <v>1</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+        <v>850</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>802</v>
       </c>
@@ -3782,10 +3815,13 @@
         <v>1</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+        <v>850</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="F20" s="5"/>
@@ -3794,6 +3830,11 @@
       <c r="I20" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O17" r:id="rId1" xr:uid="{AD61D10E-2BB8-488D-9466-F0F7CAB43F26}"/>
+    <hyperlink ref="O18" r:id="rId2" xr:uid="{DD9F9DC6-8978-414E-8786-847DF64DE0A8}"/>
+    <hyperlink ref="O19" r:id="rId3" xr:uid="{C821A787-EF6F-43A5-A8FC-98A905F2C9CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>
@@ -7405,25 +7446,25 @@
         <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="E125" s="2">
         <v>10</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="J125" s="2">
         <v>16</v>
@@ -7437,25 +7478,25 @@
         <v>2</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="E126" s="2">
         <v>10</v>
       </c>
       <c r="F126" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="J126" s="2">
         <v>53</v>
@@ -7469,25 +7510,25 @@
         <v>3</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="E127" s="2">
         <v>10</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="J127" s="2">
         <v>3</v>
@@ -7501,25 +7542,25 @@
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="E128" s="2">
         <v>10</v>
       </c>
       <c r="F128" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="H128" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="I128" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J128" s="2">
         <v>52</v>
@@ -7533,25 +7574,25 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="E129" s="2">
         <v>35</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="J129" s="2">
         <v>15</v>
@@ -7565,25 +7606,25 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
       </c>
       <c r="F130" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="J130" s="2">
         <v>16</v>
@@ -7597,25 +7638,25 @@
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="E131" s="2">
         <v>10</v>
       </c>
       <c r="F131" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="J131" s="2">
         <v>53</v>
@@ -7629,25 +7670,25 @@
         <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="E132" s="2">
         <v>10</v>
       </c>
       <c r="F132" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="J132" s="2">
         <v>3</v>
@@ -7661,25 +7702,25 @@
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
       </c>
       <c r="F133" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="I133" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J133" s="2">
         <v>52</v>
@@ -7693,25 +7734,25 @@
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="E134" s="2">
         <v>35</v>
       </c>
       <c r="F134" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="J134" s="2">
         <v>15</v>
@@ -7725,22 +7766,22 @@
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="E135" s="2">
         <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="J135" s="2">
         <v>2</v>
@@ -7757,22 +7798,22 @@
         <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="E136" s="2">
         <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="H136" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J136" s="2">
         <v>3</v>
@@ -7789,22 +7830,22 @@
         <v>3</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="E137" s="2">
         <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="H137" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J137" s="2">
         <v>4</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D42280-EF9C-4F71-8303-44F5C2588ABE}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06B6B611-72A4-4571-9A85-B1BAA9ADF02F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2556" yWindow="1548" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="856">
   <si>
     <t>id</t>
   </si>
@@ -2758,6 +2758,9 @@
   </si>
   <si>
     <t>https://forms.office.com/e/M9RWUkYtjW</t>
+  </si>
+  <si>
+    <t>One</t>
   </si>
 </sst>
 </file>
@@ -3059,10 +3062,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3723,6 +3726,9 @@
       <c r="K17" s="2" t="s">
         <v>800</v>
       </c>
+      <c r="L17" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
@@ -3767,6 +3773,9 @@
       <c r="K18" s="2" t="s">
         <v>800</v>
       </c>
+      <c r="L18" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
@@ -3810,6 +3819,9 @@
       </c>
       <c r="K19" s="2" t="s">
         <v>800</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06B6B611-72A4-4571-9A85-B1BAA9ADF02F}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9000E1F-9FBF-4AA3-9E9D-7991C65C7BF5}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1548" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="857">
   <si>
     <t>id</t>
   </si>
@@ -2762,12 +2762,15 @@
   <si>
     <t>One</t>
   </si>
+  <si>
+    <t>logo\MystiGo_logo_cat.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2797,6 +2800,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2819,7 +2830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2840,6 +2851,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3062,10 +3074,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3247,6 +3259,9 @@
       <c r="L4" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="N4" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -3282,6 +3297,9 @@
       <c r="L5" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="N5" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -3317,6 +3335,9 @@
       <c r="L6" s="2" t="s">
         <v>786</v>
       </c>
+      <c r="N6" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -3352,6 +3373,9 @@
       <c r="L7" s="2" t="s">
         <v>787</v>
       </c>
+      <c r="N7" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -3393,6 +3417,9 @@
       <c r="M8" s="2">
         <v>1</v>
       </c>
+      <c r="N8" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -3434,6 +3461,9 @@
       <c r="M9" s="2">
         <v>1</v>
       </c>
+      <c r="N9" s="10" t="s">
+        <v>856</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>853</v>
       </c>
@@ -3475,6 +3505,9 @@
       <c r="L10" s="2" t="s">
         <v>778</v>
       </c>
+      <c r="N10" s="10" t="s">
+        <v>856</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>853</v>
       </c>
@@ -3583,6 +3616,9 @@
       <c r="L13" s="2" t="s">
         <v>780</v>
       </c>
+      <c r="N13" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -3618,6 +3654,9 @@
       <c r="L14" s="2" t="s">
         <v>781</v>
       </c>
+      <c r="N14" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -3656,6 +3695,9 @@
       <c r="L15" s="2" t="s">
         <v>789</v>
       </c>
+      <c r="N15" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -3690,6 +3732,9 @@
       </c>
       <c r="L16" s="2" t="s">
         <v>790</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9000E1F-9FBF-4AA3-9E9D-7991C65C7BF5}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E42961-9BF3-4A0F-B14C-8BC7780040CB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -790,42 +790,6 @@
     <t>19.1751178095692</t>
   </si>
   <si>
-    <t>47.42799336972903</t>
-  </si>
-  <si>
-    <t>19.174533088035915</t>
-  </si>
-  <si>
-    <t>47.4273800455561</t>
-  </si>
-  <si>
-    <t>19.173315365202097</t>
-  </si>
-  <si>
-    <t>47.42658888312655</t>
-  </si>
-  <si>
-    <t>19.17422731621732</t>
-  </si>
-  <si>
-    <t>47.42728931652335</t>
-  </si>
-  <si>
-    <t>19.17525728442274</t>
-  </si>
-  <si>
-    <t>47.4278590922562</t>
-  </si>
-  <si>
-    <t>19.175782997360926</t>
-  </si>
-  <si>
-    <t>47.42814311170687</t>
-  </si>
-  <si>
-    <t>19.17651895792345</t>
-  </si>
-  <si>
     <t>Mysti cica észrevett valamit a legnagyobb fa gyökerénél: egy apró, fényes érmét, rajta különös rovásokkal. Ahogy közelebb ment, a levegő megváltozott, és halkan suttogást hallott: „Az első kód a bölcsesség fájánál rejtőzik…”</t>
   </si>
   <si>
@@ -2764,6 +2728,42 @@
   </si>
   <si>
     <t>logo\MystiGo_logo_cat.png</t>
+  </si>
+  <si>
+    <t>47.42777769298367</t>
+  </si>
+  <si>
+    <t>19.17591495258302</t>
+  </si>
+  <si>
+    <t>47.4272696122159</t>
+  </si>
+  <si>
+    <t>19.175228307103396</t>
+  </si>
+  <si>
+    <t>47.42799362581276</t>
+  </si>
+  <si>
+    <t>19.17443973768394</t>
+  </si>
+  <si>
+    <t>47.428463594231715</t>
+  </si>
+  <si>
+    <t>19.17582107529802</t>
+  </si>
+  <si>
+    <t>47.4282349614764</t>
+  </si>
+  <si>
+    <t>19.176043698637528</t>
+  </si>
+  <si>
+    <t>47.427873129272996</t>
+  </si>
+  <si>
+    <t>19.175754028715886</t>
   </si>
 </sst>
 </file>
@@ -2851,7 +2851,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3073,11 +3073,11 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3132,27 +3132,27 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3161,23 +3161,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3200,29 +3200,29 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
@@ -3230,13 +3230,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3254,24 +3254,24 @@
         <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -3289,16 +3289,16 @@
         <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
@@ -3306,7 +3306,7 @@
         <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>217</v>
@@ -3330,24 +3330,24 @@
         <v>221</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -3356,36 +3356,36 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3394,42 +3394,42 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3438,45 +3438,45 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3485,31 +3485,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
@@ -3541,10 +3541,10 @@
         <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>121</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
@@ -3611,13 +3611,13 @@
         <v>146</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
@@ -3649,24 +3649,24 @@
         <v>184</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -3675,39 +3675,39 @@
         <v>1000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -3716,166 +3716,166 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
@@ -3906,9 +3906,9 @@
   </sheetPr>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125:XFD137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3957,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -3974,7 +3974,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>52</v>
@@ -4004,19 +4004,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="J3" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -4033,19 +4033,19 @@
         <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -4062,7 +4062,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>38</v>
@@ -4091,10 +4091,10 @@
         <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>43</v>
@@ -4120,7 +4120,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>44</v>
@@ -4149,19 +4149,19 @@
         <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -4178,7 +4178,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>75</v>
@@ -4207,7 +4207,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>29</v>
@@ -4236,7 +4236,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>74</v>
@@ -5080,19 +5080,19 @@
         <v>10</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
@@ -5103,28 +5103,28 @@
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>845</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>225</v>
+        <v>846</v>
       </c>
       <c r="E41" s="2">
         <v>10</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
@@ -5135,25 +5135,25 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>226</v>
+        <v>847</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
+        <v>848</v>
       </c>
       <c r="E42" s="2">
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="J42" s="2">
         <v>1989</v>
@@ -5167,25 +5167,25 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>228</v>
+        <v>849</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>229</v>
+        <v>850</v>
       </c>
       <c r="E43" s="2">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J43" s="2">
         <v>10</v>
@@ -5199,25 +5199,25 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>230</v>
+        <v>851</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>231</v>
+        <v>852</v>
       </c>
       <c r="E44" s="2">
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
@@ -5231,28 +5231,28 @@
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>232</v>
+        <v>853</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>233</v>
+        <v>854</v>
       </c>
       <c r="E45" s="2">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H45" s="2">
         <v>1186</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
@@ -5263,25 +5263,25 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>234</v>
+        <v>855</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>235</v>
+        <v>856</v>
       </c>
       <c r="E46" s="2">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J46" s="2">
         <v>10</v>
@@ -5289,655 +5289,655 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="J48" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="G50" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B51" s="2">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="G51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E56" s="2">
         <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J56" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F58" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F59" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D60" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F61" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D63" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F63" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B64" s="2">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F64" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B65" s="2">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D65" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B66" s="2">
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D66" t="s">
+        <v>411</v>
+      </c>
+      <c r="F66" t="s">
         <v>423</v>
       </c>
-      <c r="F66" t="s">
-        <v>435</v>
-      </c>
       <c r="G66" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" t="s">
+        <v>413</v>
+      </c>
+      <c r="F67" t="s">
         <v>424</v>
       </c>
-      <c r="D67" t="s">
-        <v>425</v>
-      </c>
-      <c r="F67" t="s">
-        <v>436</v>
-      </c>
       <c r="G67" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E68" s="2">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
@@ -5945,63 +5945,63 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E69" s="2">
         <v>5</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J70" s="2">
         <v>11</v>
@@ -6009,22 +6009,22 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E71" s="2">
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -6033,39 +6033,39 @@
         <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="J72" s="2">
         <v>1763</v>
@@ -6073,31 +6073,31 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B73" s="2">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D73" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J73" s="2">
         <v>1814</v>
@@ -6105,63 +6105,63 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D74" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D75" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E75" s="2">
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="J75" s="2">
         <v>63</v>
@@ -6169,208 +6169,208 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B76" s="2">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D76" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E76" s="2">
         <v>20</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D77" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G77" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="H77" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="I77" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D78" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="G78" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="H78" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="I78" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="J78" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="D79" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D80" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G80" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H80" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="I80" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="J80" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D81" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G81" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I81" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="J81" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="J82" s="2">
         <v>4</v>
@@ -6381,31 +6381,31 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
@@ -6416,31 +6416,31 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="E84" s="2">
         <v>3</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="J84" s="2">
         <v>6</v>
@@ -6451,31 +6451,31 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B85" s="4">
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="J85" s="2">
         <v>9</v>
@@ -6486,31 +6486,31 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="J86" s="2">
         <v>4</v>
@@ -6518,31 +6518,31 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B87" s="4">
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="E87" s="2">
         <v>3</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="J87" s="2">
         <v>3</v>
@@ -6550,31 +6550,31 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="E88" s="2">
         <v>3</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="J88" s="2">
         <v>6</v>
@@ -6582,31 +6582,31 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B89" s="4">
         <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="E89" s="2">
         <v>3</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="J89" s="2">
         <v>9</v>
@@ -6614,25 +6614,25 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D90" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="K90" s="2">
         <v>1</v>
@@ -6640,22 +6640,22 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D91" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>30</v>
@@ -6666,25 +6666,25 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D92" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
@@ -6692,25 +6692,25 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D93" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
@@ -6718,25 +6718,25 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D94" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="K94" s="2">
         <v>1</v>
@@ -6744,25 +6744,25 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D95" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
@@ -6770,25 +6770,25 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B96" s="2">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D96" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
@@ -6796,25 +6796,25 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B97" s="2">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D97" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="K97" s="2">
         <v>1</v>
@@ -6822,25 +6822,25 @@
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B98" s="2">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D98" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
@@ -6848,25 +6848,25 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B99" s="2">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D99" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="K99" s="2">
         <v>1</v>
@@ -6874,25 +6874,25 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B100" s="2">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D100" t="s">
+        <v>707</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D100" t="s">
-        <v>719</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="J100" s="2" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="K100" s="2">
         <v>1</v>
@@ -6900,25 +6900,25 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="D101" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="K101" s="2">
         <v>1</v>
@@ -6926,25 +6926,25 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B102" s="2">
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="D102" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="K102" s="2">
         <v>1</v>
@@ -6952,25 +6952,25 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B103" s="2">
         <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="D103" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
@@ -6978,25 +6978,25 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B104" s="2">
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="D104" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="K104" s="2">
         <v>1</v>
@@ -7004,25 +7004,25 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B105" s="2">
         <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D105" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K105" s="2">
         <v>1</v>
@@ -7030,25 +7030,25 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B106" s="2">
         <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D106" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="K106" s="2">
         <v>1</v>
@@ -7056,25 +7056,25 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B107" s="2">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D107" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K107" s="2">
         <v>1</v>
@@ -7082,25 +7082,25 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B108" s="2">
         <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
@@ -7108,25 +7108,25 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B109" s="2">
         <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D109" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="K109" s="2">
         <v>1</v>
@@ -7134,25 +7134,25 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B110" s="2">
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D110" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
@@ -7160,25 +7160,25 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B111" s="2">
         <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D111" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="K111" s="2">
         <v>1</v>
@@ -7186,25 +7186,25 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B112" s="2">
         <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D112" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="K112" s="2">
         <v>1</v>
@@ -7212,25 +7212,25 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B113" s="2">
         <v>24</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D113" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="K113" s="2">
         <v>1</v>
@@ -7238,290 +7238,290 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="D114" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D115" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D116" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="D117" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D118" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B119" s="2">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D119" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B120" s="2">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D120" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="D121" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B122" s="2">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D122" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B123" s="2">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D123" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D124" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E125" s="2">
         <v>10</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="J125" s="2">
         <v>16</v>
@@ -7529,31 +7529,31 @@
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B126" s="2">
         <v>2</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="E126" s="2">
         <v>10</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="J126" s="2">
         <v>53</v>
@@ -7561,31 +7561,31 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B127" s="2">
         <v>3</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="E127" s="2">
         <v>10</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="J127" s="2">
         <v>3</v>
@@ -7593,31 +7593,31 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B128" s="2">
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="E128" s="2">
         <v>10</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="J128" s="2">
         <v>52</v>
@@ -7625,31 +7625,31 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B129" s="2">
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="E129" s="2">
         <v>35</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="J129" s="2">
         <v>15</v>
@@ -7657,31 +7657,31 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="J130" s="2">
         <v>16</v>
@@ -7689,31 +7689,31 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="E131" s="2">
         <v>10</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="J131" s="2">
         <v>53</v>
@@ -7721,31 +7721,31 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B132" s="2">
         <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="E132" s="2">
         <v>10</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="J132" s="2">
         <v>3</v>
@@ -7753,31 +7753,31 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B133" s="2">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="J133" s="2">
         <v>52</v>
@@ -7785,31 +7785,31 @@
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B134" s="2">
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="E134" s="2">
         <v>35</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="J134" s="2">
         <v>15</v>
@@ -7817,28 +7817,28 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="E135" s="2">
         <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="J135" s="2">
         <v>2</v>
@@ -7849,28 +7849,28 @@
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B136" s="2">
         <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="E136" s="2">
         <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="J136" s="2">
         <v>3</v>
@@ -7881,28 +7881,28 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B137" s="2">
         <v>3</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="E137" s="2">
         <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="J137" s="2">
         <v>4</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E42961-9BF3-4A0F-B14C-8BC7780040CB}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E0B5572-43E2-44DE-A6F2-781A4A56A136}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="858">
   <si>
     <t>id</t>
   </si>
@@ -907,9 +907,6 @@
     <t>Gondold végig.</t>
   </si>
   <si>
-    <t>Misi 8 éves</t>
-  </si>
-  <si>
     <t>47.397518190277</t>
   </si>
   <si>
@@ -2764,6 +2761,12 @@
   </si>
   <si>
     <t>19.175754028715886</t>
+  </si>
+  <si>
+    <t>Lilla 8 éves</t>
+  </si>
+  <si>
+    <t>oneTimeOnly</t>
   </si>
 </sst>
 </file>
@@ -3071,13 +3074,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3097,7 +3100,7 @@
     <col min="13" max="16384" width="22.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8">
+    <row r="1" spans="1:16" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3132,27 +3135,30 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+        <v>839</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3161,37 +3167,37 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" t="s">
         <v>629</v>
-      </c>
-      <c r="H2" t="s">
-        <v>630</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3200,32 +3206,32 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3233,10 +3239,10 @@
         <v>251</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3257,21 +3263,21 @@
         <v>252</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -3280,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -3289,19 +3295,19 @@
         <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>216</v>
       </c>
@@ -3333,21 +3339,21 @@
         <v>253</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -3356,36 +3362,36 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3394,42 +3400,42 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3438,45 +3444,45 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3485,34 +3491,34 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -3544,10 +3550,10 @@
         <v>254</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>115</v>
       </c>
@@ -3579,10 +3585,10 @@
         <v>255</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>141</v>
       </c>
@@ -3614,13 +3620,13 @@
         <v>256</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>185</v>
       </c>
@@ -3652,13 +3658,13 @@
         <v>257</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>258</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -3675,39 +3681,39 @@
         <v>1000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -3716,169 +3722,178 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+        <v>841</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+        <v>841</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>791</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+        <v>841</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="F20" s="5"/>
@@ -3906,9 +3921,9 @@
   </sheetPr>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3957,7 +3972,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -3974,7 +3989,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>52</v>
@@ -4004,19 +4019,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="J3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -4033,19 +4048,19 @@
         <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -4062,7 +4077,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>38</v>
@@ -4091,10 +4106,10 @@
         <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>43</v>
@@ -4120,7 +4135,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>44</v>
@@ -4149,19 +4164,19 @@
         <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -4178,7 +4193,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>75</v>
@@ -4207,7 +4222,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>29</v>
@@ -4236,7 +4251,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>74</v>
@@ -5103,10 +5118,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="E41" s="2">
         <v>10</v>
@@ -5135,10 +5150,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="E42" s="2">
         <v>10</v>
@@ -5167,10 +5182,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="E43" s="2">
         <v>10</v>
@@ -5199,10 +5214,10 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="E44" s="2">
         <v>10</v>
@@ -5231,10 +5246,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="E45" s="2">
         <v>10</v>
@@ -5263,10 +5278,10 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="E46" s="2">
         <v>10</v>
@@ -5281,7 +5296,7 @@
         <v>260</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>261</v>
+        <v>856</v>
       </c>
       <c r="J46" s="2">
         <v>10</v>
@@ -5295,25 +5310,25 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
@@ -5324,25 +5339,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
@@ -5353,25 +5368,25 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
@@ -5382,25 +5397,25 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
@@ -5411,25 +5426,25 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
@@ -5440,504 +5455,504 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" t="s">
         <v>333</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="E56" s="2">
         <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" t="s">
         <v>346</v>
-      </c>
-      <c r="J56" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D58" t="s">
         <v>394</v>
       </c>
-      <c r="D58" t="s">
-        <v>395</v>
-      </c>
       <c r="F58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="I58" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="J58" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" t="s">
         <v>396</v>
       </c>
-      <c r="D59" t="s">
-        <v>397</v>
-      </c>
       <c r="F59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="J59" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" t="s">
         <v>398</v>
       </c>
-      <c r="D60" t="s">
-        <v>399</v>
-      </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="J60" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61" t="s">
         <v>400</v>
       </c>
-      <c r="D61" t="s">
-        <v>401</v>
-      </c>
       <c r="F61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="I61" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="J61" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D62" t="s">
         <v>402</v>
       </c>
-      <c r="D62" t="s">
-        <v>403</v>
-      </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="J62" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" s="2">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" t="s">
         <v>404</v>
       </c>
-      <c r="D63" t="s">
-        <v>405</v>
-      </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" t="s">
         <v>406</v>
       </c>
-      <c r="D64" t="s">
-        <v>407</v>
-      </c>
       <c r="F64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B65" s="2">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D65" t="s">
         <v>408</v>
       </c>
-      <c r="D65" t="s">
-        <v>409</v>
-      </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B66" s="2">
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" t="s">
         <v>410</v>
       </c>
-      <c r="D66" t="s">
-        <v>411</v>
-      </c>
       <c r="F66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" t="s">
         <v>412</v>
       </c>
-      <c r="D67" t="s">
-        <v>413</v>
-      </c>
       <c r="F67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="I67" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="E68" s="2">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H68" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
@@ -5945,63 +5960,63 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="E69" s="2">
         <v>5</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J70" s="2">
         <v>11</v>
@@ -6009,22 +6024,22 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="E71" s="2">
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -6033,39 +6048,39 @@
         <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" t="s">
         <v>454</v>
-      </c>
-      <c r="D72" t="s">
-        <v>455</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J72" s="2">
         <v>1763</v>
@@ -6073,31 +6088,31 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B73" s="2">
         <v>6</v>
       </c>
       <c r="C73" t="s">
+        <v>458</v>
+      </c>
+      <c r="D73" t="s">
         <v>459</v>
-      </c>
-      <c r="D73" t="s">
-        <v>460</v>
       </c>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H73" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="J73" s="2">
         <v>1814</v>
@@ -6105,63 +6120,63 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
       </c>
       <c r="C74" t="s">
+        <v>460</v>
+      </c>
+      <c r="D74" t="s">
         <v>461</v>
-      </c>
-      <c r="D74" t="s">
-        <v>462</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="J74" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>466</v>
+      </c>
+      <c r="D75" t="s">
         <v>467</v>
-      </c>
-      <c r="D75" t="s">
-        <v>468</v>
       </c>
       <c r="E75" s="2">
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="J75" s="2">
         <v>63</v>
@@ -6169,208 +6184,208 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B76" s="2">
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" t="s">
         <v>472</v>
-      </c>
-      <c r="D76" t="s">
-        <v>473</v>
       </c>
       <c r="E76" s="2">
         <v>20</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>519</v>
+      </c>
+      <c r="D77" t="s">
         <v>520</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="G77" t="s">
         <v>522</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>523</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>524</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>525</v>
-      </c>
-      <c r="J77" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
+        <v>526</v>
+      </c>
+      <c r="D78" t="s">
         <v>527</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="G78" t="s">
         <v>529</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>530</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>531</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>532</v>
-      </c>
-      <c r="J78" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
+        <v>533</v>
+      </c>
+      <c r="D79" t="s">
         <v>534</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I79" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
+        <v>539</v>
+      </c>
+      <c r="D80" t="s">
         <v>540</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="G80" t="s">
         <v>542</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>543</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>544</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>545</v>
-      </c>
-      <c r="J80" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
+        <v>546</v>
+      </c>
+      <c r="D81" t="s">
         <v>547</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="G81" t="s">
         <v>548</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>549</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>550</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>551</v>
-      </c>
-      <c r="J81" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="J82" s="2">
         <v>4</v>
@@ -6381,31 +6396,31 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
@@ -6416,31 +6431,31 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="E84" s="2">
         <v>3</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H84" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="J84" s="2">
         <v>6</v>
@@ -6451,31 +6466,31 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" s="4">
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H85" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="J85" s="2">
         <v>9</v>
@@ -6486,31 +6501,31 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H86" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="J86" s="2">
         <v>4</v>
@@ -6518,31 +6533,31 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B87" s="4">
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="E87" s="2">
         <v>3</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H87" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="J87" s="2">
         <v>3</v>
@@ -6550,31 +6565,31 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="E88" s="2">
         <v>3</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="J88" s="2">
         <v>6</v>
@@ -6582,31 +6597,31 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B89" s="4">
         <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="E89" s="2">
         <v>3</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H89" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="J89" s="2">
         <v>9</v>
@@ -6614,25 +6629,25 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D90" t="s">
         <v>598</v>
       </c>
-      <c r="D90" t="s">
-        <v>599</v>
-      </c>
       <c r="F90" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K90" s="2">
         <v>1</v>
@@ -6640,22 +6655,22 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D91" t="s">
         <v>622</v>
       </c>
-      <c r="D91" t="s">
-        <v>623</v>
-      </c>
       <c r="F91" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>30</v>
@@ -6666,25 +6681,25 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D92" t="s">
         <v>606</v>
       </c>
-      <c r="D92" t="s">
-        <v>607</v>
-      </c>
       <c r="F92" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
@@ -6692,25 +6707,25 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D93" t="s">
         <v>596</v>
       </c>
-      <c r="D93" t="s">
-        <v>597</v>
-      </c>
       <c r="F93" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
@@ -6718,25 +6733,25 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D94" t="s">
         <v>614</v>
       </c>
-      <c r="D94" t="s">
-        <v>615</v>
-      </c>
       <c r="F94" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K94" s="2">
         <v>1</v>
@@ -6744,25 +6759,25 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D95" t="s">
         <v>584</v>
       </c>
-      <c r="D95" t="s">
-        <v>585</v>
-      </c>
       <c r="F95" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
@@ -6770,25 +6785,25 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B96" s="2">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D96" t="s">
         <v>616</v>
       </c>
-      <c r="D96" t="s">
-        <v>617</v>
-      </c>
       <c r="F96" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
@@ -6796,25 +6811,25 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B97" s="2">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D97" t="s">
         <v>620</v>
       </c>
-      <c r="D97" t="s">
-        <v>621</v>
-      </c>
       <c r="F97" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K97" s="2">
         <v>1</v>
@@ -6822,25 +6837,25 @@
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B98" s="2">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D98" t="s">
         <v>604</v>
       </c>
-      <c r="D98" t="s">
-        <v>605</v>
-      </c>
       <c r="F98" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
@@ -6848,25 +6863,25 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B99" s="2">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D99" t="s">
         <v>586</v>
       </c>
-      <c r="D99" t="s">
-        <v>587</v>
-      </c>
       <c r="F99" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K99" s="2">
         <v>1</v>
@@ -6874,25 +6889,25 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B100" s="2">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D100" t="s">
         <v>706</v>
       </c>
-      <c r="D100" t="s">
-        <v>707</v>
-      </c>
       <c r="F100" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K100" s="2">
         <v>1</v>
@@ -6900,25 +6915,25 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D101" t="s">
         <v>610</v>
       </c>
-      <c r="D101" t="s">
-        <v>611</v>
-      </c>
       <c r="F101" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K101" s="2">
         <v>1</v>
@@ -6926,25 +6941,25 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102" s="2">
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D102" t="s">
         <v>618</v>
       </c>
-      <c r="D102" t="s">
-        <v>619</v>
-      </c>
       <c r="F102" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K102" s="2">
         <v>1</v>
@@ -6952,25 +6967,25 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B103" s="2">
         <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D103" t="s">
         <v>612</v>
       </c>
-      <c r="D103" t="s">
-        <v>613</v>
-      </c>
       <c r="F103" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
@@ -6978,25 +6993,25 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B104" s="2">
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D104" t="s">
         <v>608</v>
       </c>
-      <c r="D104" t="s">
-        <v>609</v>
-      </c>
       <c r="F104" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K104" s="2">
         <v>1</v>
@@ -7004,25 +7019,25 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B105" s="2">
         <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D105" t="s">
         <v>600</v>
       </c>
-      <c r="D105" t="s">
-        <v>601</v>
-      </c>
       <c r="F105" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K105" s="2">
         <v>1</v>
@@ -7030,25 +7045,25 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B106" s="2">
         <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D106" t="s">
         <v>594</v>
       </c>
-      <c r="D106" t="s">
-        <v>595</v>
-      </c>
       <c r="F106" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K106" s="2">
         <v>1</v>
@@ -7056,25 +7071,25 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B107" s="2">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D107" t="s">
         <v>588</v>
       </c>
-      <c r="D107" t="s">
-        <v>589</v>
-      </c>
       <c r="F107" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K107" s="2">
         <v>1</v>
@@ -7082,25 +7097,25 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B108" s="2">
         <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>582</v>
-      </c>
       <c r="F108" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
@@ -7108,25 +7123,25 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B109" s="2">
         <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D109" t="s">
         <v>592</v>
       </c>
-      <c r="D109" t="s">
-        <v>593</v>
-      </c>
       <c r="F109" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K109" s="2">
         <v>1</v>
@@ -7134,25 +7149,25 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B110" s="2">
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D110" t="s">
         <v>704</v>
       </c>
-      <c r="D110" t="s">
-        <v>705</v>
-      </c>
       <c r="F110" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
@@ -7160,25 +7175,25 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B111" s="2">
         <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D111" t="s">
         <v>590</v>
       </c>
-      <c r="D111" t="s">
-        <v>591</v>
-      </c>
       <c r="F111" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K111" s="2">
         <v>1</v>
@@ -7186,25 +7201,25 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B112" s="2">
         <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D112" t="s">
         <v>624</v>
       </c>
-      <c r="D112" t="s">
-        <v>625</v>
-      </c>
       <c r="F112" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K112" s="2">
         <v>1</v>
@@ -7212,25 +7227,25 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B113" s="2">
         <v>24</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D113" t="s">
         <v>602</v>
       </c>
-      <c r="D113" t="s">
-        <v>603</v>
-      </c>
       <c r="F113" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K113" s="2">
         <v>1</v>
@@ -7238,160 +7253,160 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D114" t="s">
         <v>631</v>
       </c>
-      <c r="D114" t="s">
-        <v>632</v>
-      </c>
       <c r="F114" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D115" t="s">
         <v>633</v>
       </c>
-      <c r="D115" t="s">
-        <v>634</v>
-      </c>
       <c r="F115" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D116" t="s">
         <v>635</v>
       </c>
-      <c r="D116" t="s">
-        <v>636</v>
-      </c>
       <c r="F116" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D117" t="s">
         <v>637</v>
       </c>
-      <c r="D117" t="s">
-        <v>638</v>
-      </c>
       <c r="F117" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D118" t="s">
         <v>639</v>
       </c>
-      <c r="D118" t="s">
-        <v>640</v>
-      </c>
       <c r="F118" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B119" s="2">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D119" t="s">
         <v>641</v>
       </c>
-      <c r="D119" t="s">
-        <v>642</v>
-      </c>
       <c r="F119" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J119" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B120" s="2">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D120" t="s">
         <v>643</v>
       </c>
-      <c r="D120" t="s">
-        <v>644</v>
-      </c>
       <c r="F120" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>236</v>
@@ -7399,129 +7414,129 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D121" t="s">
         <v>645</v>
       </c>
-      <c r="D121" t="s">
-        <v>646</v>
-      </c>
       <c r="F121" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B122" s="2">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D122" t="s">
         <v>647</v>
       </c>
-      <c r="D122" t="s">
-        <v>648</v>
-      </c>
       <c r="F122" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B123" s="2">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D123" t="s">
         <v>649</v>
       </c>
-      <c r="D123" t="s">
-        <v>650</v>
-      </c>
       <c r="F123" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D124" t="s">
         <v>651</v>
       </c>
-      <c r="D124" t="s">
-        <v>652</v>
-      </c>
       <c r="F124" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="E125" s="2">
         <v>10</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="J125" s="2">
         <v>16</v>
@@ -7529,31 +7544,31 @@
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B126" s="2">
         <v>2</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="E126" s="2">
         <v>10</v>
       </c>
       <c r="F126" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="J126" s="2">
         <v>53</v>
@@ -7561,31 +7576,31 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B127" s="2">
         <v>3</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="E127" s="2">
         <v>10</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="J127" s="2">
         <v>3</v>
@@ -7593,31 +7608,31 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B128" s="2">
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E128" s="2">
         <v>10</v>
       </c>
       <c r="F128" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="H128" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="I128" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J128" s="2">
         <v>52</v>
@@ -7625,31 +7640,31 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B129" s="2">
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="E129" s="2">
         <v>35</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="J129" s="2">
         <v>15</v>
@@ -7657,31 +7672,31 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
       </c>
       <c r="F130" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="J130" s="2">
         <v>16</v>
@@ -7689,31 +7704,31 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="E131" s="2">
         <v>10</v>
       </c>
       <c r="F131" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="J131" s="2">
         <v>53</v>
@@ -7721,31 +7736,31 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B132" s="2">
         <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="E132" s="2">
         <v>10</v>
       </c>
       <c r="F132" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="J132" s="2">
         <v>3</v>
@@ -7753,31 +7768,31 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B133" s="2">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
       </c>
       <c r="F133" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="I133" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J133" s="2">
         <v>52</v>
@@ -7785,31 +7800,31 @@
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B134" s="2">
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="E134" s="2">
         <v>35</v>
       </c>
       <c r="F134" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="J134" s="2">
         <v>15</v>
@@ -7817,28 +7832,28 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="E135" s="2">
         <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="J135" s="2">
         <v>2</v>
@@ -7849,28 +7864,28 @@
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B136" s="2">
         <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="E136" s="2">
         <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="H136" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J136" s="2">
         <v>3</v>
@@ -7881,28 +7896,28 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B137" s="2">
         <v>3</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="E137" s="2">
         <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>837</v>
-      </c>
       <c r="H137" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J137" s="2">
         <v>4</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E0B5572-43E2-44DE-A6F2-781A4A56A136}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5128E95-A8E7-4199-A1A6-48A9293A6951}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3890,7 +3890,7 @@
         <v>841</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5128E95-A8E7-4199-A1A6-48A9293A6951}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D05CA76-47E5-4EB1-9FC1-F5C64978D7FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="888">
   <si>
     <t>id</t>
   </si>
@@ -2767,6 +2767,98 @@
   </si>
   <si>
     <t>oneTimeOnly</t>
+  </si>
+  <si>
+    <t>teszt-game</t>
+  </si>
+  <si>
+    <t>Teszt Játék</t>
+  </si>
+  <si>
+    <t>Ez egy teszt játék arra a célra, hogy ki tudd próbálni a játék felületét, ilyenkor nem használ valós GPS jelet, hanem te tudod szimulálni a térképre bökéssel mintha ott lennél.</t>
+  </si>
+  <si>
+    <t>Sikeresen teljesítetted a teszt játékot, most már jöhet egy éles játék is.</t>
+  </si>
+  <si>
+    <t>47.515080143691584</t>
+  </si>
+  <si>
+    <t>19.07872721146242</t>
+  </si>
+  <si>
+    <t>47.515564345036054</t>
+  </si>
+  <si>
+    <t>19.077107508211782</t>
+  </si>
+  <si>
+    <t>47.517996411125964</t>
+  </si>
+  <si>
+    <t>19.077601129957664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A budapesti Hősök tere a Városliget bejáratánál található, és Magyarország egyik legismertebb és legimpozánsabb tere. </t>
+  </si>
+  <si>
+    <t>Millenniumi emlékmű – Idézet</t>
+  </si>
+  <si>
+    <t>A budapesti Szépművészeti Múzeum a Hősök terén található, és Magyarország egyik legjelentősebb művészeti gyűjteménye.
+Az oszlopok száma a múzeum kapujánál több mint dísz – a számuk rejtett jelentést hordozhat.</t>
+  </si>
+  <si>
+    <t>A Budapesti Állat- és Növénykert a Városliget szívében található, és Európa egyik legrégebbi állatkertje, 1866-ban nyílt meg. 
+Két elefánt őrzi a következő nyomot. A közöttük lévő dísz árulkodó lehet.</t>
+  </si>
+  <si>
+    <t>Mennyi 2+2= ?</t>
+  </si>
+  <si>
+    <t>Mennyi 1+2= ?</t>
+  </si>
+  <si>
+    <t>Mennyi 3+3= ?</t>
+  </si>
+  <si>
+    <t>Mennyi 5+4= ?</t>
+  </si>
+  <si>
+    <t>Több mint 2</t>
+  </si>
+  <si>
+    <t>Több mint 3</t>
+  </si>
+  <si>
+    <t>Több mint 5</t>
+  </si>
+  <si>
+    <t>Több mint 8</t>
+  </si>
+  <si>
+    <t>Kevesebb mint 5</t>
+  </si>
+  <si>
+    <t>Kevesebb mint 4</t>
+  </si>
+  <si>
+    <t>Kevesebb mint 7</t>
+  </si>
+  <si>
+    <t>Kevesebb mint 10</t>
+  </si>
+  <si>
+    <t>47.514605774521456</t>
+  </si>
+  <si>
+    <t>19.077256682488038</t>
+  </si>
+  <si>
+    <t>47.51533764367384</t>
+  </si>
+  <si>
+    <t>19.078415396789936</t>
   </si>
 </sst>
 </file>
@@ -3074,13 +3166,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3097,7 +3189,9 @@
     <col min="10" max="10" width="40.44140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="22.77734375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="22.44140625" style="2"/>
+    <col min="13" max="13" width="22.44140625" style="2"/>
+    <col min="14" max="14" width="26.109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="22.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.8">
@@ -3152,13 +3246,13 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>627</v>
+        <v>858</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>652</v>
+        <v>859</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3167,37 +3261,38 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>732</v>
+        <v>860</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>628</v>
+        <v>884</v>
       </c>
       <c r="H2" t="s">
-        <v>629</v>
+        <v>885</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>674</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
+      <c r="N2" s="10" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>561</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3206,87 +3301,88 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>581</v>
+        <v>732</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" t="s">
+        <v>629</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="5" t="s">
-        <v>676</v>
+      <c r="J3" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>840</v>
+      <c r="M3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>579</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>561</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>508</v>
+        <v>625</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>252</v>
+        <v>675</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>843</v>
+        <v>771</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>413</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -3294,11 +3390,11 @@
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>424</v>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>425</v>
+        <v>252</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>772</v>
@@ -3309,13 +3405,13 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>217</v>
+        <v>426</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -3324,22 +3420,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>221</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>843</v>
@@ -3347,37 +3443,37 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>513</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>553</v>
+      <c r="F7" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>515</v>
+        <v>218</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>517</v>
+        <v>219</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>518</v>
+        <v>253</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>843</v>
@@ -3385,43 +3481,37 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>555</v>
+      <c r="F8" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>743</v>
+        <v>515</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>556</v>
+        <v>516</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>517</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
+        <v>774</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>843</v>
@@ -3429,13 +3519,13 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>561</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3444,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>556</v>
@@ -3470,19 +3560,16 @@
       <c r="N9" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>840</v>
-      </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>561</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>428</v>
+        <v>560</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3490,26 +3577,29 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>429</v>
+      <c r="F10" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>432</v>
+        <v>753</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>433</v>
+        <v>754</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>430</v>
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>431</v>
+        <v>557</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>765</v>
+        <v>775</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>843</v>
@@ -3520,13 +3610,13 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -3534,34 +3624,43 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>79</v>
+      <c r="F11" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>432</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>433</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>254</v>
+        <v>431</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>117</v>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -3569,34 +3668,34 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>118</v>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -3604,37 +3703,34 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>143</v>
+      <c r="F13" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>843</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>182</v>
+      <c r="C14" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -3642,102 +3738,102 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>183</v>
+      <c r="F14" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>257</v>
+        <v>145</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>258</v>
+      <c r="A15" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>275</v>
+      <c r="C15" t="s">
+        <v>182</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I15" s="2">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>309</v>
+      <c r="A16" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>311</v>
+        <v>262</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>843</v>
@@ -3745,60 +3841,48 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>779</v>
+        <v>309</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>780</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>781</v>
+        <v>313</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>782</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>783</v>
+      <c r="F17" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>784</v>
+        <v>310</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>787</v>
+        <v>311</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
+        <v>777</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>561</v>
+        <v>780</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>781</v>
@@ -3845,34 +3929,34 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>782</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>791</v>
+      <c r="F19" s="5" t="s">
+        <v>783</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>794</v>
+      <c r="J19" s="5" t="s">
+        <v>786</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>787</v>
@@ -3890,22 +3974,72 @@
         <v>841</v>
       </c>
       <c r="P19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="P20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O17" r:id="rId1" xr:uid="{AD61D10E-2BB8-488D-9466-F0F7CAB43F26}"/>
-    <hyperlink ref="O18" r:id="rId2" xr:uid="{DD9F9DC6-8978-414E-8786-847DF64DE0A8}"/>
-    <hyperlink ref="O19" r:id="rId3" xr:uid="{C821A787-EF6F-43A5-A8FC-98A905F2C9CE}"/>
+    <hyperlink ref="O18" r:id="rId1" xr:uid="{AD61D10E-2BB8-488D-9466-F0F7CAB43F26}"/>
+    <hyperlink ref="O19" r:id="rId2" xr:uid="{DD9F9DC6-8978-414E-8786-847DF64DE0A8}"/>
+    <hyperlink ref="O20" r:id="rId3" xr:uid="{C821A787-EF6F-43A5-A8FC-98A905F2C9CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3919,11 +4053,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7926,6 +8060,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A138" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>886</v>
+      </c>
+      <c r="D138" t="s">
+        <v>887</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="J138" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A139" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>862</v>
+      </c>
+      <c r="D139" t="s">
+        <v>863</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="J139" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A140" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>864</v>
+      </c>
+      <c r="D140" t="s">
+        <v>865</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J140" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A141" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>866</v>
+      </c>
+      <c r="D141" t="s">
+        <v>867</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J141" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A151" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J124" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:J113">

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D05CA76-47E5-4EB1-9FC1-F5C64978D7FA}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC69DCF8-F635-4486-A24B-0A8C9108064D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -2781,12 +2781,6 @@
     <t>Sikeresen teljesítetted a teszt játékot, most már jöhet egy éles játék is.</t>
   </si>
   <si>
-    <t>47.515080143691584</t>
-  </si>
-  <si>
-    <t>19.07872721146242</t>
-  </si>
-  <si>
     <t>47.515564345036054</t>
   </si>
   <si>
@@ -2800,9 +2794,6 @@
   </si>
   <si>
     <t xml:space="preserve">A budapesti Hősök tere a Városliget bejáratánál található, és Magyarország egyik legismertebb és legimpozánsabb tere. </t>
-  </si>
-  <si>
-    <t>Millenniumi emlékmű – Idézet</t>
   </si>
   <si>
     <t>A budapesti Szépművészeti Múzeum a Hősök terén található, és Magyarország egyik legjelentősebb művészeti gyűjteménye.
@@ -2859,6 +2850,15 @@
   </si>
   <si>
     <t>19.078415396789936</t>
+  </si>
+  <si>
+    <t>47.51919332018073</t>
+  </si>
+  <si>
+    <t>19.081189245706298</t>
+  </si>
+  <si>
+    <t>A Fővárosi Nagycirkusz a Városligetben, a Hősök tere közelében található, és 1889 óta szórakoztatja a közönséget. Ez Magyarország egyetlen kőcirkusza, ahol az év minden szakában tartanak előadásokat. A cirkuszban világszínvonalú artisták, állatszámok, légtornászok és látványos show-műsorok várják a nézőket, gyakran nemzetközi fellépőkkel. A Nagycirkusz célja, hogy a hagyományos cirkuszművészetet ötvözze a modern színházi és zenei elemekkel, így minden korosztály számára különleges élményt nyújt.</t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3168,8 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
@@ -3264,10 +3264,10 @@
         <v>860</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
@@ -4055,9 +4055,9 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8068,23 +8068,23 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D138" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E138"/>
       <c r="F138" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H138" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>880</v>
       </c>
       <c r="J138" s="2">
         <v>4</v>
@@ -8105,16 +8105,16 @@
       </c>
       <c r="E139"/>
       <c r="F139" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G139" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="H139" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H139" s="3" t="s">
-        <v>876</v>
-      </c>
       <c r="I139" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J139" s="2">
         <v>3</v>
@@ -8135,16 +8135,16 @@
       </c>
       <c r="E140"/>
       <c r="F140" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J140" s="2">
         <v>6</v>
@@ -8158,23 +8158,23 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="D141" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="E141"/>
       <c r="F141" s="8" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J141" s="2">
         <v>9</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC69DCF8-F635-4486-A24B-0A8C9108064D}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97620AA6-E275-42D5-A09D-923051F96984}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">games!$A$1:$P$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3168,11 +3169,11 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3598,14 +3599,14 @@
       <c r="L10" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
       <c r="N10" s="10" t="s">
         <v>843</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>840</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
@@ -4024,7 +4025,7 @@
         <v>841</v>
       </c>
       <c r="P20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
@@ -4036,6 +4037,7 @@
       <c r="I21" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="O18" r:id="rId1" xr:uid="{AD61D10E-2BB8-488D-9466-F0F7CAB43F26}"/>
     <hyperlink ref="O19" r:id="rId2" xr:uid="{DD9F9DC6-8978-414E-8786-847DF64DE0A8}"/>
@@ -4055,7 +4057,7 @@
   </sheetPr>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -3173,7 +3173,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2589215F-7DF6-4414-9D13-B922795081B8}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DBD2CA-388E-4F9B-BCAF-226A69E933D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1769">
   <si>
     <t>id</t>
   </si>
@@ -3792,9 +3792,6 @@
   </si>
   <si>
     <t>Pingvin</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>47.51749818484341</t>
@@ -6003,11 +6000,11 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6076,7 +6073,7 @@
         <v>838</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
@@ -6252,7 +6249,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>413</v>
@@ -6271,6 +6268,9 @@
       </c>
       <c r="L6" s="2" t="s">
         <v>771</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
@@ -6430,14 +6430,14 @@
       <c r="L10" s="2" t="s">
         <v>774</v>
       </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
       <c r="N10" s="10" t="s">
         <v>842</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
@@ -6746,17 +6746,11 @@
       <c r="L18" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
       <c r="N18" s="2" t="s">
         <v>836</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
@@ -6796,17 +6790,11 @@
       <c r="L19" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
       <c r="N19" s="2" t="s">
         <v>836</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
@@ -6925,9 +6913,7 @@
       <c r="K22" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
@@ -6943,7 +6929,7 @@
         <v>19</v>
       </c>
       <c r="E23">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>925</v>
@@ -6960,9 +6946,7 @@
       <c r="K23" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
@@ -6978,7 +6962,7 @@
         <v>19</v>
       </c>
       <c r="E24">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>932</v>
@@ -6994,6 +6978,9 @@
       </c>
       <c r="K24" s="10" t="s">
         <v>936</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
       </c>
       <c r="P24" s="2">
         <v>0</v>
@@ -7013,7 +7000,7 @@
         <v>19</v>
       </c>
       <c r="E25">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>939</v>
@@ -7029,6 +7016,9 @@
       </c>
       <c r="K25" s="10" t="s">
         <v>943</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -7048,7 +7038,7 @@
         <v>781</v>
       </c>
       <c r="E26">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>946</v>
@@ -7061,9 +7051,6 @@
       </c>
       <c r="J26" t="s">
         <v>949</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
@@ -7080,7 +7067,7 @@
         <v>19</v>
       </c>
       <c r="E27">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>952</v>
@@ -7093,9 +7080,6 @@
       </c>
       <c r="J27" t="s">
         <v>955</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
@@ -7112,7 +7096,7 @@
         <v>19</v>
       </c>
       <c r="E28">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>958</v>
@@ -7144,7 +7128,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>964</v>
@@ -7176,7 +7160,7 @@
         <v>781</v>
       </c>
       <c r="E30">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>888</v>
@@ -7198,7 +7182,7 @@
         <v>915</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
@@ -7215,7 +7199,7 @@
         <v>781</v>
       </c>
       <c r="E31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>895</v>
@@ -7237,7 +7221,7 @@
         <v>764</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
@@ -7254,7 +7238,7 @@
         <v>351</v>
       </c>
       <c r="E32">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>902</v>
@@ -7277,43 +7261,46 @@
       <c r="L32" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
       <c r="P32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>779</v>
       </c>
       <c r="C33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D33" t="s">
         <v>781</v>
       </c>
       <c r="E33">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G33" t="s">
         <v>1346</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>1347</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" s="11" t="s">
         <v>1348</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="K33" t="s">
         <v>1349</v>
       </c>
-      <c r="K33" t="s">
-        <v>1350</v>
-      </c>
       <c r="L33" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -7340,9 +7327,11 @@
   </sheetPr>
   <dimension ref="A1:K272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E225" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10960,6 +10949,9 @@
       <c r="J125" s="2">
         <v>16</v>
       </c>
+      <c r="K125" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
@@ -10992,6 +10984,9 @@
       <c r="J126" s="2">
         <v>53</v>
       </c>
+      <c r="K126" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
@@ -11024,6 +11019,9 @@
       <c r="J127" s="2">
         <v>3</v>
       </c>
+      <c r="K127" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
@@ -11056,6 +11054,9 @@
       <c r="J128" s="2">
         <v>52</v>
       </c>
+      <c r="K128" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
@@ -11088,6 +11089,9 @@
       <c r="J129" s="2">
         <v>15</v>
       </c>
+      <c r="K129" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
@@ -11120,6 +11124,9 @@
       <c r="J130" s="2">
         <v>16</v>
       </c>
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
@@ -11152,6 +11159,9 @@
       <c r="J131" s="2">
         <v>53</v>
       </c>
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
@@ -11184,6 +11194,9 @@
       <c r="J132" s="2">
         <v>3</v>
       </c>
+      <c r="K132" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
@@ -11216,6 +11229,9 @@
       <c r="J133" s="2">
         <v>52</v>
       </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
@@ -11248,6 +11264,9 @@
       <c r="J134" s="2">
         <v>15</v>
       </c>
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
@@ -12411,10 +12430,10 @@
         <v>1173</v>
       </c>
       <c r="G174" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12425,19 +12444,19 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D175" t="s">
         <v>1175</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="F175" s="8" t="s">
-        <v>1177</v>
-      </c>
       <c r="G175" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12448,19 +12467,19 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D176" t="s">
         <v>1178</v>
       </c>
-      <c r="D176" t="s">
+      <c r="F176" s="8" t="s">
         <v>1179</v>
       </c>
-      <c r="F176" s="8" t="s">
-        <v>1180</v>
-      </c>
       <c r="G176" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12471,19 +12490,19 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D177" t="s">
         <v>1181</v>
       </c>
-      <c r="D177" t="s">
+      <c r="F177" s="8" t="s">
         <v>1182</v>
       </c>
-      <c r="F177" s="8" t="s">
-        <v>1183</v>
-      </c>
       <c r="G177" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12494,19 +12513,19 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D178" t="s">
         <v>1184</v>
       </c>
-      <c r="D178" t="s">
+      <c r="F178" t="s">
         <v>1185</v>
       </c>
-      <c r="F178" t="s">
-        <v>1186</v>
-      </c>
       <c r="G178" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12517,19 +12536,19 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D179" t="s">
         <v>1187</v>
       </c>
-      <c r="D179" t="s">
+      <c r="F179" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="F179" s="8" t="s">
-        <v>1189</v>
-      </c>
       <c r="G179" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J179" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12540,19 +12559,19 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D180" t="s">
         <v>1190</v>
       </c>
-      <c r="D180" t="s">
+      <c r="F180" t="s">
         <v>1191</v>
       </c>
-      <c r="F180" t="s">
-        <v>1192</v>
-      </c>
       <c r="G180" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12563,19 +12582,19 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D181" t="s">
         <v>1193</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="F181" s="8" t="s">
-        <v>1195</v>
-      </c>
       <c r="G181" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12586,19 +12605,19 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D182" t="s">
         <v>1196</v>
       </c>
-      <c r="D182" t="s">
+      <c r="F182" t="s">
         <v>1197</v>
       </c>
-      <c r="F182" t="s">
-        <v>1198</v>
-      </c>
       <c r="G182" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12609,19 +12628,19 @@
         <v>10</v>
       </c>
       <c r="C183" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D183" t="s">
         <v>1199</v>
       </c>
-      <c r="D183" t="s">
+      <c r="F183" s="8" t="s">
         <v>1200</v>
       </c>
-      <c r="F183" s="8" t="s">
-        <v>1201</v>
-      </c>
       <c r="G183" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J183">
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12632,19 +12651,19 @@
         <v>11</v>
       </c>
       <c r="C184" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D184" t="s">
         <v>1202</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>1203</v>
       </c>
-      <c r="F184" t="s">
-        <v>1204</v>
-      </c>
       <c r="G184" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12655,19 +12674,19 @@
         <v>12</v>
       </c>
       <c r="C185" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D185" t="s">
         <v>1205</v>
       </c>
-      <c r="D185" t="s">
+      <c r="F185" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="F185" s="8" t="s">
-        <v>1207</v>
-      </c>
       <c r="G185" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12678,19 +12697,19 @@
         <v>13</v>
       </c>
       <c r="C186" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D186" t="s">
         <v>1208</v>
       </c>
-      <c r="D186" t="s">
+      <c r="F186" t="s">
         <v>1209</v>
       </c>
-      <c r="F186" t="s">
-        <v>1210</v>
-      </c>
       <c r="G186" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -12701,19 +12720,19 @@
         <v>14</v>
       </c>
       <c r="C187" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D187" t="s">
         <v>1211</v>
       </c>
-      <c r="D187" t="s">
+      <c r="F187" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="F187" s="8" t="s">
-        <v>1213</v>
-      </c>
       <c r="G187" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1174</v>
+        <v>826</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -12724,22 +12743,22 @@
         <v>1</v>
       </c>
       <c r="C188" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>1214</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="F188" s="12" t="s">
         <v>1215</v>
       </c>
-      <c r="F188" s="12" t="s">
+      <c r="G188" s="13" t="s">
         <v>1216</v>
       </c>
-      <c r="G188" s="13" t="s">
+      <c r="H188" s="13" t="s">
         <v>1217</v>
       </c>
-      <c r="H188" s="13" t="s">
+      <c r="I188" s="13" t="s">
         <v>1218</v>
-      </c>
-      <c r="I188" s="13" t="s">
-        <v>1219</v>
       </c>
       <c r="J188" s="13" t="s">
         <v>655</v>
@@ -12753,22 +12772,22 @@
         <v>2</v>
       </c>
       <c r="C189" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D189" s="13" t="s">
         <v>1220</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="F189" s="14" t="s">
         <v>1221</v>
       </c>
-      <c r="F189" s="14" t="s">
+      <c r="G189" s="12" t="s">
         <v>1222</v>
       </c>
-      <c r="G189" s="12" t="s">
+      <c r="H189" s="12" t="s">
         <v>1223</v>
       </c>
-      <c r="H189" s="12" t="s">
+      <c r="I189" s="12" t="s">
         <v>1224</v>
-      </c>
-      <c r="I189" s="12" t="s">
-        <v>1225</v>
       </c>
       <c r="J189" s="13" t="s">
         <v>735</v>
@@ -12782,22 +12801,22 @@
         <v>3</v>
       </c>
       <c r="C190" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D190" s="13" t="s">
         <v>1226</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="F190" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="F190" s="14" t="s">
+      <c r="G190" s="12" t="s">
         <v>1228</v>
       </c>
-      <c r="G190" s="12" t="s">
+      <c r="H190" s="12" t="s">
         <v>1229</v>
       </c>
-      <c r="H190" s="12" t="s">
+      <c r="I190" s="12" t="s">
         <v>1230</v>
-      </c>
-      <c r="I190" s="12" t="s">
-        <v>1231</v>
       </c>
       <c r="J190" s="12" t="s">
         <v>738</v>
@@ -12811,22 +12830,22 @@
         <v>4</v>
       </c>
       <c r="C191" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D191" s="13" t="s">
         <v>1232</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="F191" s="14" t="s">
         <v>1233</v>
       </c>
-      <c r="F191" s="14" t="s">
+      <c r="G191" s="12" t="s">
         <v>1234</v>
       </c>
-      <c r="G191" s="12" t="s">
+      <c r="H191" s="12" t="s">
         <v>1235</v>
       </c>
-      <c r="H191" s="12" t="s">
+      <c r="I191" s="12" t="s">
         <v>1236</v>
-      </c>
-      <c r="I191" s="12" t="s">
-        <v>1237</v>
       </c>
       <c r="J191" s="12" t="s">
         <v>737</v>
@@ -12840,22 +12859,22 @@
         <v>5</v>
       </c>
       <c r="C192" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D192" s="13" t="s">
         <v>1238</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="F192" s="14" t="s">
         <v>1239</v>
       </c>
-      <c r="F192" s="14" t="s">
+      <c r="G192" s="12" t="s">
         <v>1240</v>
       </c>
-      <c r="G192" s="12" t="s">
+      <c r="H192" s="12" t="s">
         <v>1241</v>
       </c>
-      <c r="H192" s="12" t="s">
+      <c r="I192" s="12" t="s">
         <v>1242</v>
-      </c>
-      <c r="I192" s="12" t="s">
-        <v>1243</v>
       </c>
       <c r="J192" s="12" t="s">
         <v>741</v>
@@ -12869,22 +12888,22 @@
         <v>6</v>
       </c>
       <c r="C193" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="F193" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="F193" s="14" t="s">
+      <c r="G193" s="12" t="s">
         <v>1246</v>
       </c>
-      <c r="G193" s="12" t="s">
+      <c r="H193" s="12" t="s">
         <v>1247</v>
       </c>
-      <c r="H193" s="12" t="s">
+      <c r="I193" s="12" t="s">
         <v>1248</v>
-      </c>
-      <c r="I193" s="12" t="s">
-        <v>1249</v>
       </c>
       <c r="J193" s="12" t="s">
         <v>42</v>
@@ -12898,22 +12917,22 @@
         <v>7</v>
       </c>
       <c r="C194" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D194" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="F194" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="F194" s="14" t="s">
+      <c r="G194" s="12" t="s">
         <v>1252</v>
       </c>
-      <c r="G194" s="12" t="s">
+      <c r="H194" s="12" t="s">
         <v>1253</v>
       </c>
-      <c r="H194" s="12" t="s">
+      <c r="I194" s="12" t="s">
         <v>1254</v>
-      </c>
-      <c r="I194" s="12" t="s">
-        <v>1255</v>
       </c>
       <c r="J194" s="12" t="s">
         <v>737</v>
@@ -12927,22 +12946,22 @@
         <v>8</v>
       </c>
       <c r="C195" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D195" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="F195" s="14" t="s">
         <v>1257</v>
       </c>
-      <c r="F195" s="14" t="s">
+      <c r="G195" s="12" t="s">
         <v>1258</v>
       </c>
-      <c r="G195" s="12" t="s">
+      <c r="H195" s="12" t="s">
         <v>1259</v>
       </c>
-      <c r="H195" s="12" t="s">
+      <c r="I195" s="12" t="s">
         <v>1260</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>1261</v>
       </c>
       <c r="J195" s="12" t="s">
         <v>669</v>
@@ -12956,25 +12975,25 @@
         <v>9</v>
       </c>
       <c r="C196" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D196" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="D196" s="13" t="s">
+      <c r="F196" s="12" t="s">
         <v>1263</v>
       </c>
-      <c r="F196" s="12" t="s">
+      <c r="G196" s="14" t="s">
         <v>1264</v>
       </c>
-      <c r="G196" s="14" t="s">
+      <c r="H196" s="12" t="s">
         <v>1265</v>
       </c>
-      <c r="H196" s="12" t="s">
+      <c r="I196" s="12" t="s">
         <v>1266</v>
       </c>
-      <c r="I196" s="12" t="s">
+      <c r="J196" s="12" t="s">
         <v>1267</v>
-      </c>
-      <c r="J196" s="12" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -12985,25 +13004,25 @@
         <v>10</v>
       </c>
       <c r="C197" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D197" s="13" t="s">
         <v>1269</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="F197" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="F197" s="13" t="s">
+      <c r="G197" s="12" t="s">
         <v>1271</v>
       </c>
-      <c r="G197" s="12" t="s">
+      <c r="H197" s="12" t="s">
         <v>1272</v>
       </c>
-      <c r="H197" s="12" t="s">
+      <c r="I197" s="13" t="s">
         <v>1273</v>
       </c>
-      <c r="I197" s="13" t="s">
+      <c r="J197" s="12" t="s">
         <v>1274</v>
-      </c>
-      <c r="J197" s="12" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1">
@@ -13014,25 +13033,25 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="F198" t="s">
         <v>1277</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="G198" s="7" t="s">
+      <c r="H198" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="I198" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="I198" s="7" t="s">
+      <c r="J198" s="7" t="s">
         <v>1281</v>
-      </c>
-      <c r="J198" s="7" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1">
@@ -13043,25 +13062,25 @@
         <v>2</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="F199" t="s">
         <v>1284</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="G199" s="7" t="s">
+      <c r="H199" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="I199" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="I199" s="7" t="s">
+      <c r="J199" s="7" t="s">
         <v>1288</v>
-      </c>
-      <c r="J199" s="7" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1">
@@ -13072,25 +13091,25 @@
         <v>3</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="F200" t="s">
         <v>1291</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="G200" s="7" t="s">
+      <c r="H200" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="I200" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="I200" s="7" t="s">
+      <c r="J200" s="7" t="s">
         <v>1295</v>
-      </c>
-      <c r="J200" s="7" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1">
@@ -13101,25 +13120,25 @@
         <v>4</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="F201" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="G201" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="G201" s="7" t="s">
+      <c r="H201" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="I201" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="I201" s="7" t="s">
+      <c r="J201" s="7" t="s">
         <v>1302</v>
-      </c>
-      <c r="J201" s="7" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1">
@@ -13130,25 +13149,25 @@
         <v>5</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="G202" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="G202" s="7" t="s">
+      <c r="H202" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="I202" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="I202" s="7" t="s">
+      <c r="J202" s="7" t="s">
         <v>1309</v>
-      </c>
-      <c r="J202" s="7" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1">
@@ -13159,22 +13178,22 @@
         <v>6</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="F203" t="s">
         <v>1312</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="G203" s="7" t="s">
+      <c r="H203" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="I203" s="7" t="s">
         <v>1315</v>
-      </c>
-      <c r="I203" s="7" t="s">
-        <v>1316</v>
       </c>
       <c r="J203" s="7" t="s">
         <v>544</v>
@@ -13188,25 +13207,25 @@
         <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="G204" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="G204" s="7" t="s">
+      <c r="H204" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="I204" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="I204" s="7" t="s">
+      <c r="J204" s="7" t="s">
         <v>1322</v>
-      </c>
-      <c r="J204" s="7" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1">
@@ -13217,25 +13236,25 @@
         <v>8</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="F205" s="2" t="s">
+      <c r="G205" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="G205" s="7" t="s">
+      <c r="H205" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="I205" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="I205" s="7" t="s">
+      <c r="J205" s="7" t="s">
         <v>1329</v>
-      </c>
-      <c r="J205" s="7" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1">
@@ -13246,25 +13265,25 @@
         <v>9</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="G206" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="G206" s="7" t="s">
+      <c r="H206" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="I206" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="I206" s="7" t="s">
+      <c r="J206" s="7" t="s">
         <v>1336</v>
-      </c>
-      <c r="J206" s="7" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1">
@@ -13275,25 +13294,25 @@
         <v>10</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="G207" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="G207" s="7" t="s">
+      <c r="H207" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="I207" s="7" t="s">
         <v>1342</v>
       </c>
-      <c r="I207" s="7" t="s">
+      <c r="J207" s="7" t="s">
         <v>1343</v>
-      </c>
-      <c r="J207" s="7" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="208" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13310,19 +13329,19 @@
         <v>948</v>
       </c>
       <c r="F208" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G208" t="s">
         <v>1354</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>1355</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>1356</v>
       </c>
-      <c r="I208" t="s">
+      <c r="J208" t="s">
         <v>1357</v>
-      </c>
-      <c r="J208" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="209" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13333,25 +13352,25 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D209" t="s">
         <v>1359</v>
       </c>
-      <c r="D209" t="s">
+      <c r="F209" t="s">
         <v>1360</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>1361</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>1362</v>
       </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>1363</v>
       </c>
-      <c r="I209" t="s">
+      <c r="J209" t="s">
         <v>1364</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="210" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13362,25 +13381,25 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D210" t="s">
         <v>1366</v>
       </c>
-      <c r="D210" t="s">
+      <c r="F210" t="s">
         <v>1367</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>1368</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>1369</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>1370</v>
       </c>
-      <c r="I210" t="s">
+      <c r="J210" t="s">
         <v>1371</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="211" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13391,25 +13410,25 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D211" t="s">
         <v>1373</v>
       </c>
-      <c r="D211" t="s">
+      <c r="F211" t="s">
         <v>1374</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>1375</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>1376</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
         <v>1377</v>
       </c>
-      <c r="I211" t="s">
+      <c r="J211" t="s">
         <v>1378</v>
-      </c>
-      <c r="J211" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="212" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13420,25 +13439,25 @@
         <v>5</v>
       </c>
       <c r="C212" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D212" t="s">
         <v>1380</v>
       </c>
-      <c r="D212" t="s">
+      <c r="F212" t="s">
         <v>1381</v>
       </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>1382</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>1383</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>1384</v>
       </c>
-      <c r="I212" t="s">
+      <c r="J212" t="s">
         <v>1385</v>
-      </c>
-      <c r="J212" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="213" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13449,25 +13468,25 @@
         <v>6</v>
       </c>
       <c r="C213" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D213" t="s">
         <v>1387</v>
       </c>
-      <c r="D213" t="s">
+      <c r="F213" t="s">
         <v>1388</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>1389</v>
       </c>
-      <c r="G213" t="s">
+      <c r="H213" t="s">
         <v>1390</v>
       </c>
-      <c r="H213" t="s">
+      <c r="I213" t="s">
         <v>1391</v>
       </c>
-      <c r="I213" t="s">
+      <c r="J213" t="s">
         <v>1392</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="214" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13478,25 +13497,25 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D214" t="s">
         <v>1394</v>
       </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>1395</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>1396</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>1397</v>
       </c>
-      <c r="H214" t="s">
+      <c r="I214" t="s">
         <v>1398</v>
       </c>
-      <c r="I214" t="s">
+      <c r="J214" t="s">
         <v>1399</v>
-      </c>
-      <c r="J214" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="215" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13507,25 +13526,25 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D215" t="s">
         <v>1401</v>
       </c>
-      <c r="D215" t="s">
+      <c r="F215" t="s">
         <v>1402</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>1403</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>1404</v>
       </c>
-      <c r="H215" t="s">
+      <c r="I215" t="s">
         <v>1405</v>
       </c>
-      <c r="I215" t="s">
+      <c r="J215" t="s">
         <v>1406</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="216" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13536,25 +13555,25 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D216" t="s">
         <v>1408</v>
       </c>
-      <c r="D216" t="s">
+      <c r="F216" t="s">
         <v>1409</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>1410</v>
       </c>
-      <c r="G216" t="s">
+      <c r="H216" t="s">
         <v>1411</v>
       </c>
-      <c r="H216" t="s">
+      <c r="I216" t="s">
         <v>1412</v>
       </c>
-      <c r="I216" t="s">
+      <c r="J216" t="s">
         <v>1413</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="217" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13565,25 +13584,25 @@
         <v>10</v>
       </c>
       <c r="C217" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D217" t="s">
         <v>1415</v>
       </c>
-      <c r="D217" t="s">
+      <c r="F217" t="s">
         <v>1416</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>1417</v>
       </c>
-      <c r="G217" t="s">
+      <c r="H217" t="s">
         <v>1418</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>1419</v>
       </c>
-      <c r="I217" t="s">
+      <c r="J217" t="s">
         <v>1420</v>
-      </c>
-      <c r="J217" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="218" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13594,25 +13613,25 @@
         <v>11</v>
       </c>
       <c r="C218" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D218" t="s">
         <v>1422</v>
       </c>
-      <c r="D218" t="s">
+      <c r="F218" t="s">
         <v>1423</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>1424</v>
       </c>
-      <c r="G218" t="s">
+      <c r="H218" t="s">
         <v>1425</v>
       </c>
-      <c r="H218" t="s">
+      <c r="I218" t="s">
         <v>1426</v>
       </c>
-      <c r="I218" t="s">
+      <c r="J218" t="s">
         <v>1427</v>
-      </c>
-      <c r="J218" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="219" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13623,25 +13642,25 @@
         <v>12</v>
       </c>
       <c r="C219" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D219" t="s">
         <v>1429</v>
       </c>
-      <c r="D219" t="s">
+      <c r="F219" t="s">
         <v>1430</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>1431</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>1432</v>
       </c>
-      <c r="H219" t="s">
+      <c r="I219" t="s">
         <v>1433</v>
       </c>
-      <c r="I219" t="s">
+      <c r="J219" t="s">
         <v>1434</v>
-      </c>
-      <c r="J219" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="220" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13652,22 +13671,22 @@
         <v>13</v>
       </c>
       <c r="C220" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D220" t="s">
         <v>1436</v>
       </c>
-      <c r="D220" t="s">
+      <c r="F220" t="s">
         <v>1437</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>1438</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>1439</v>
       </c>
-      <c r="H220" t="s">
+      <c r="I220" t="s">
         <v>1440</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1441</v>
       </c>
       <c r="J220" t="s">
         <v>666</v>
@@ -13681,25 +13700,25 @@
         <v>14</v>
       </c>
       <c r="C221" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D221" t="s">
         <v>1442</v>
       </c>
-      <c r="D221" t="s">
+      <c r="F221" t="s">
         <v>1443</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>1444</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>1445</v>
       </c>
-      <c r="H221" t="s">
+      <c r="I221" t="s">
         <v>1446</v>
       </c>
-      <c r="I221" t="s">
+      <c r="J221" t="s">
         <v>1447</v>
-      </c>
-      <c r="J221" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="222" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13710,25 +13729,25 @@
         <v>15</v>
       </c>
       <c r="C222" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D222" t="s">
         <v>1449</v>
       </c>
-      <c r="D222" t="s">
+      <c r="F222" t="s">
         <v>1450</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>1451</v>
       </c>
-      <c r="G222" t="s">
+      <c r="H222" t="s">
         <v>1452</v>
       </c>
-      <c r="H222" t="s">
+      <c r="I222" t="s">
         <v>1453</v>
       </c>
-      <c r="I222" t="s">
+      <c r="J222" t="s">
         <v>1454</v>
-      </c>
-      <c r="J222" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="223" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13745,19 +13764,19 @@
         <v>960</v>
       </c>
       <c r="F223" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G223" t="s">
         <v>1456</v>
       </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>1457</v>
       </c>
-      <c r="H223" t="s">
+      <c r="I223" t="s">
         <v>1458</v>
       </c>
-      <c r="I223" t="s">
+      <c r="J223" t="s">
         <v>1459</v>
-      </c>
-      <c r="J223" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="224" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13768,25 +13787,25 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D224" t="s">
         <v>1461</v>
       </c>
-      <c r="D224" t="s">
+      <c r="F224" t="s">
         <v>1462</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>1463</v>
       </c>
-      <c r="G224" t="s">
+      <c r="H224" t="s">
         <v>1464</v>
       </c>
-      <c r="H224" t="s">
+      <c r="I224" t="s">
         <v>1465</v>
       </c>
-      <c r="I224" t="s">
+      <c r="J224" t="s">
         <v>1466</v>
-      </c>
-      <c r="J224" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="225" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13797,25 +13816,25 @@
         <v>3</v>
       </c>
       <c r="C225" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D225" t="s">
         <v>1468</v>
       </c>
-      <c r="D225" t="s">
+      <c r="F225" t="s">
         <v>1469</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>1470</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>1471</v>
       </c>
-      <c r="H225" t="s">
+      <c r="I225" t="s">
         <v>1472</v>
       </c>
-      <c r="I225" t="s">
+      <c r="J225" t="s">
         <v>1473</v>
-      </c>
-      <c r="J225" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="226" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13826,25 +13845,25 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D226" t="s">
         <v>1475</v>
       </c>
-      <c r="D226" t="s">
+      <c r="F226" t="s">
         <v>1476</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>1477</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>1478</v>
       </c>
-      <c r="H226" t="s">
+      <c r="I226" t="s">
         <v>1479</v>
       </c>
-      <c r="I226" t="s">
+      <c r="J226" t="s">
         <v>1480</v>
-      </c>
-      <c r="J226" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="227" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13855,25 +13874,25 @@
         <v>5</v>
       </c>
       <c r="C227" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D227" t="s">
         <v>1482</v>
       </c>
-      <c r="D227" t="s">
+      <c r="F227" t="s">
         <v>1483</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>1484</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>1485</v>
       </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
         <v>1486</v>
       </c>
-      <c r="I227" t="s">
+      <c r="J227" t="s">
         <v>1487</v>
-      </c>
-      <c r="J227" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="228" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13884,25 +13903,25 @@
         <v>6</v>
       </c>
       <c r="C228" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D228" t="s">
         <v>1489</v>
       </c>
-      <c r="D228" t="s">
+      <c r="F228" t="s">
         <v>1490</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>1491</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>1492</v>
       </c>
-      <c r="H228" t="s">
+      <c r="I228" t="s">
         <v>1493</v>
       </c>
-      <c r="I228" t="s">
+      <c r="J228" t="s">
         <v>1494</v>
-      </c>
-      <c r="J228" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="229" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13913,22 +13932,22 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D229" t="s">
         <v>1496</v>
       </c>
-      <c r="D229" t="s">
+      <c r="F229" t="s">
         <v>1497</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>1498</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>1499</v>
       </c>
-      <c r="H229" t="s">
+      <c r="I229" t="s">
         <v>1500</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1501</v>
       </c>
       <c r="J229" t="s">
         <v>197</v>
@@ -13942,25 +13961,25 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D230" t="s">
         <v>1502</v>
       </c>
-      <c r="D230" t="s">
+      <c r="F230" t="s">
         <v>1503</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>1504</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>1505</v>
       </c>
-      <c r="H230" t="s">
+      <c r="I230" t="s">
         <v>1506</v>
       </c>
-      <c r="I230" t="s">
-        <v>1507</v>
-      </c>
       <c r="J230" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="231" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -13971,25 +13990,25 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D231" t="s">
         <v>1508</v>
       </c>
-      <c r="D231" t="s">
+      <c r="F231" t="s">
         <v>1509</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>1510</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>1511</v>
       </c>
-      <c r="H231" t="s">
+      <c r="I231" t="s">
         <v>1512</v>
       </c>
-      <c r="I231" t="s">
-        <v>1513</v>
-      </c>
       <c r="J231" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="232" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14000,25 +14019,25 @@
         <v>10</v>
       </c>
       <c r="C232" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D232" t="s">
         <v>1514</v>
       </c>
-      <c r="D232" t="s">
+      <c r="F232" t="s">
         <v>1515</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>1516</v>
       </c>
-      <c r="G232" t="s">
+      <c r="H232" t="s">
         <v>1517</v>
       </c>
-      <c r="H232" t="s">
+      <c r="I232" t="s">
         <v>1518</v>
       </c>
-      <c r="I232" t="s">
+      <c r="J232" t="s">
         <v>1519</v>
-      </c>
-      <c r="J232" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="233" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14035,19 +14054,19 @@
         <v>927</v>
       </c>
       <c r="F233" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G233" t="s">
         <v>1521</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="s">
         <v>1522</v>
       </c>
-      <c r="H233" t="s">
+      <c r="I233" t="s">
         <v>1523</v>
       </c>
-      <c r="I233" t="s">
+      <c r="J233" t="s">
         <v>1524</v>
-      </c>
-      <c r="J233" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="234" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14058,25 +14077,25 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D234" t="s">
         <v>1526</v>
       </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>1527</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>1528</v>
       </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>1529</v>
       </c>
-      <c r="H234" t="s">
+      <c r="I234" t="s">
         <v>1530</v>
       </c>
-      <c r="I234" t="s">
+      <c r="J234" t="s">
         <v>1531</v>
-      </c>
-      <c r="J234" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="235" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14093,19 +14112,19 @@
         <v>975</v>
       </c>
       <c r="F235" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G235" t="s">
         <v>1533</v>
       </c>
-      <c r="G235" t="s">
+      <c r="H235" t="s">
         <v>1534</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>1535</v>
       </c>
-      <c r="I235" t="s">
+      <c r="J235" t="s">
         <v>1536</v>
-      </c>
-      <c r="J235" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="236" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14116,25 +14135,25 @@
         <v>4</v>
       </c>
       <c r="C236" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D236" t="s">
         <v>1538</v>
       </c>
-      <c r="D236" t="s">
+      <c r="F236" t="s">
         <v>1539</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>1540</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>1541</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>1542</v>
       </c>
-      <c r="I236" t="s">
+      <c r="J236" t="s">
         <v>1543</v>
-      </c>
-      <c r="J236" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="237" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14145,25 +14164,25 @@
         <v>5</v>
       </c>
       <c r="C237" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D237" t="s">
         <v>1545</v>
       </c>
-      <c r="D237" t="s">
+      <c r="F237" t="s">
         <v>1546</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>1547</v>
       </c>
-      <c r="G237" t="s">
+      <c r="H237" t="s">
         <v>1548</v>
       </c>
-      <c r="H237" t="s">
+      <c r="I237" t="s">
         <v>1549</v>
       </c>
-      <c r="I237" t="s">
+      <c r="J237" t="s">
         <v>1550</v>
-      </c>
-      <c r="J237" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="238" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14180,19 +14199,19 @@
         <v>981</v>
       </c>
       <c r="F238" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G238" t="s">
         <v>1552</v>
       </c>
-      <c r="G238" t="s">
+      <c r="H238" t="s">
         <v>1553</v>
       </c>
-      <c r="H238" t="s">
+      <c r="I238" t="s">
         <v>1554</v>
       </c>
-      <c r="I238" t="s">
+      <c r="J238" t="s">
         <v>1555</v>
-      </c>
-      <c r="J238" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="239" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14203,25 +14222,25 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D239" t="s">
         <v>1557</v>
       </c>
-      <c r="D239" t="s">
+      <c r="F239" t="s">
         <v>1558</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>1559</v>
       </c>
-      <c r="G239" t="s">
+      <c r="H239" t="s">
         <v>1560</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>1561</v>
       </c>
-      <c r="I239" t="s">
+      <c r="J239" t="s">
         <v>1562</v>
-      </c>
-      <c r="J239" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="240" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14232,25 +14251,25 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D240" t="s">
         <v>1564</v>
       </c>
-      <c r="D240" t="s">
+      <c r="F240" t="s">
         <v>1565</v>
       </c>
-      <c r="F240" t="s">
+      <c r="G240" t="s">
         <v>1566</v>
       </c>
-      <c r="G240" t="s">
+      <c r="H240" t="s">
         <v>1567</v>
       </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>1568</v>
       </c>
-      <c r="I240" t="s">
+      <c r="J240" t="s">
         <v>1569</v>
-      </c>
-      <c r="J240" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="241" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14261,22 +14280,22 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D241" t="s">
         <v>1571</v>
       </c>
-      <c r="D241" t="s">
+      <c r="F241" t="s">
         <v>1572</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>1573</v>
       </c>
-      <c r="G241" t="s">
+      <c r="H241" t="s">
         <v>1574</v>
       </c>
-      <c r="H241" t="s">
+      <c r="I241" t="s">
         <v>1575</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1576</v>
       </c>
       <c r="J241" t="s">
         <v>992</v>
@@ -14290,25 +14309,25 @@
         <v>10</v>
       </c>
       <c r="C242" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D242" t="s">
         <v>1577</v>
       </c>
-      <c r="D242" t="s">
+      <c r="F242" t="s">
         <v>1578</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>1579</v>
       </c>
-      <c r="G242" t="s">
+      <c r="H242" t="s">
         <v>1580</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>1581</v>
       </c>
-      <c r="I242" t="s">
+      <c r="J242" t="s">
         <v>1582</v>
-      </c>
-      <c r="J242" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="243" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14325,19 +14344,19 @@
         <v>934</v>
       </c>
       <c r="F243" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G243" t="s">
         <v>1584</v>
       </c>
-      <c r="G243" t="s">
+      <c r="H243" t="s">
         <v>1585</v>
       </c>
-      <c r="H243" t="s">
+      <c r="I243" t="s">
         <v>1586</v>
       </c>
-      <c r="I243" t="s">
+      <c r="J243" t="s">
         <v>1587</v>
-      </c>
-      <c r="J243" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="244" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14348,25 +14367,25 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D244" t="s">
         <v>1589</v>
       </c>
-      <c r="D244" t="s">
+      <c r="F244" t="s">
         <v>1590</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>1591</v>
       </c>
-      <c r="G244" t="s">
+      <c r="H244" t="s">
         <v>1592</v>
       </c>
-      <c r="H244" t="s">
+      <c r="I244" t="s">
         <v>1593</v>
       </c>
-      <c r="I244" t="s">
+      <c r="J244" t="s">
         <v>1594</v>
-      </c>
-      <c r="J244" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="245" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14377,25 +14396,25 @@
         <v>3</v>
       </c>
       <c r="C245" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D245" t="s">
         <v>1596</v>
       </c>
-      <c r="D245" t="s">
+      <c r="F245" t="s">
         <v>1597</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>1598</v>
       </c>
-      <c r="G245" t="s">
+      <c r="H245" t="s">
         <v>1599</v>
       </c>
-      <c r="H245" t="s">
+      <c r="I245" t="s">
         <v>1600</v>
       </c>
-      <c r="I245" t="s">
+      <c r="J245" t="s">
         <v>1601</v>
-      </c>
-      <c r="J245" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="246" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14406,25 +14425,25 @@
         <v>4</v>
       </c>
       <c r="C246" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D246" t="s">
         <v>1603</v>
       </c>
-      <c r="D246" t="s">
+      <c r="F246" t="s">
         <v>1604</v>
       </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>1605</v>
       </c>
-      <c r="G246" t="s">
+      <c r="H246" t="s">
         <v>1606</v>
       </c>
-      <c r="H246" t="s">
+      <c r="I246" t="s">
         <v>1607</v>
       </c>
-      <c r="I246" t="s">
+      <c r="J246" t="s">
         <v>1608</v>
-      </c>
-      <c r="J246" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="247" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14435,25 +14454,25 @@
         <v>5</v>
       </c>
       <c r="C247" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D247" t="s">
         <v>1610</v>
       </c>
-      <c r="D247" t="s">
+      <c r="F247" t="s">
         <v>1611</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>1612</v>
       </c>
-      <c r="G247" t="s">
+      <c r="H247" t="s">
         <v>1613</v>
       </c>
-      <c r="H247" t="s">
+      <c r="I247" t="s">
         <v>1614</v>
       </c>
-      <c r="I247" t="s">
+      <c r="J247" t="s">
         <v>1615</v>
-      </c>
-      <c r="J247" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="248" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14464,25 +14483,25 @@
         <v>6</v>
       </c>
       <c r="C248" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D248" t="s">
         <v>1617</v>
       </c>
-      <c r="D248" t="s">
+      <c r="F248" t="s">
         <v>1618</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>1619</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>1620</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
         <v>1621</v>
       </c>
-      <c r="I248" t="s">
+      <c r="J248" t="s">
         <v>1622</v>
-      </c>
-      <c r="J248" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="249" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14493,25 +14512,25 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D249" t="s">
         <v>1624</v>
       </c>
-      <c r="D249" t="s">
+      <c r="F249" t="s">
         <v>1625</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>1626</v>
       </c>
-      <c r="G249" t="s">
+      <c r="H249" t="s">
         <v>1627</v>
       </c>
-      <c r="H249" t="s">
+      <c r="I249" t="s">
         <v>1628</v>
       </c>
-      <c r="I249" t="s">
+      <c r="J249" t="s">
         <v>1629</v>
-      </c>
-      <c r="J249" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="250" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14522,25 +14541,25 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D250" t="s">
         <v>1631</v>
       </c>
-      <c r="D250" t="s">
+      <c r="F250" t="s">
         <v>1632</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>1633</v>
       </c>
-      <c r="G250" t="s">
+      <c r="H250" t="s">
         <v>1634</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>1635</v>
       </c>
-      <c r="I250" t="s">
+      <c r="J250" t="s">
         <v>1636</v>
-      </c>
-      <c r="J250" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="251" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14551,25 +14570,25 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D251" t="s">
         <v>1638</v>
       </c>
-      <c r="D251" t="s">
+      <c r="F251" t="s">
         <v>1639</v>
       </c>
-      <c r="F251" t="s">
+      <c r="G251" t="s">
         <v>1640</v>
       </c>
-      <c r="G251" t="s">
+      <c r="H251" t="s">
         <v>1641</v>
       </c>
-      <c r="H251" t="s">
+      <c r="I251" t="s">
         <v>1642</v>
       </c>
-      <c r="I251" t="s">
+      <c r="J251" t="s">
         <v>1643</v>
-      </c>
-      <c r="J251" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="252" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14580,25 +14599,25 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D252" t="s">
         <v>1645</v>
       </c>
-      <c r="D252" t="s">
+      <c r="F252" t="s">
         <v>1646</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>1647</v>
       </c>
-      <c r="G252" t="s">
+      <c r="H252" t="s">
         <v>1648</v>
       </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
         <v>1649</v>
       </c>
-      <c r="I252" t="s">
+      <c r="J252" t="s">
         <v>1650</v>
-      </c>
-      <c r="J252" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="253" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14615,19 +14634,19 @@
         <v>965</v>
       </c>
       <c r="F253" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G253" t="s">
         <v>1652</v>
       </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>1653</v>
       </c>
-      <c r="H253" t="s">
+      <c r="I253" t="s">
         <v>1654</v>
       </c>
-      <c r="I253" t="s">
+      <c r="J253" t="s">
         <v>1655</v>
-      </c>
-      <c r="J253" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="254" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14638,25 +14657,25 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D254" t="s">
         <v>1657</v>
       </c>
-      <c r="D254" t="s">
+      <c r="F254" t="s">
         <v>1658</v>
       </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>1659</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>1660</v>
       </c>
-      <c r="H254" t="s">
+      <c r="I254" t="s">
         <v>1661</v>
       </c>
-      <c r="I254" t="s">
+      <c r="J254" t="s">
         <v>1662</v>
-      </c>
-      <c r="J254" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="255" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14667,25 +14686,25 @@
         <v>3</v>
       </c>
       <c r="C255" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D255" t="s">
         <v>1664</v>
       </c>
-      <c r="D255" t="s">
+      <c r="F255" t="s">
         <v>1665</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
         <v>1666</v>
       </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>1667</v>
       </c>
-      <c r="H255" t="s">
+      <c r="I255" t="s">
         <v>1668</v>
       </c>
-      <c r="I255" t="s">
-        <v>1669</v>
-      </c>
       <c r="J255" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="256" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14696,25 +14715,25 @@
         <v>4</v>
       </c>
       <c r="C256" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D256" t="s">
         <v>1670</v>
       </c>
-      <c r="D256" t="s">
+      <c r="F256" t="s">
         <v>1671</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>1672</v>
       </c>
-      <c r="G256" t="s">
+      <c r="H256" t="s">
         <v>1673</v>
       </c>
-      <c r="H256" t="s">
+      <c r="I256" t="s">
         <v>1674</v>
       </c>
-      <c r="I256" t="s">
+      <c r="J256" t="s">
         <v>1675</v>
-      </c>
-      <c r="J256" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="257" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14725,25 +14744,25 @@
         <v>5</v>
       </c>
       <c r="C257" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D257" t="s">
         <v>1677</v>
       </c>
-      <c r="D257" t="s">
+      <c r="F257" t="s">
         <v>1678</v>
       </c>
-      <c r="F257" t="s">
-        <v>1679</v>
-      </c>
       <c r="G257" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H257" t="s">
         <v>1485</v>
       </c>
-      <c r="H257" t="s">
+      <c r="I257" t="s">
         <v>1486</v>
       </c>
-      <c r="I257" t="s">
+      <c r="J257" t="s">
         <v>1487</v>
-      </c>
-      <c r="J257" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="258" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14754,25 +14773,25 @@
         <v>6</v>
       </c>
       <c r="C258" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D258" t="s">
         <v>1680</v>
       </c>
-      <c r="D258" t="s">
+      <c r="F258" t="s">
         <v>1681</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>1682</v>
       </c>
-      <c r="G258" t="s">
+      <c r="H258" t="s">
         <v>1683</v>
       </c>
-      <c r="H258" t="s">
+      <c r="I258" t="s">
         <v>1684</v>
       </c>
-      <c r="I258" t="s">
+      <c r="J258" t="s">
         <v>1685</v>
-      </c>
-      <c r="J258" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="259" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14783,25 +14802,25 @@
         <v>7</v>
       </c>
       <c r="C259" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D259" t="s">
         <v>1687</v>
       </c>
-      <c r="D259" t="s">
+      <c r="F259" t="s">
         <v>1688</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>1689</v>
       </c>
-      <c r="G259" t="s">
+      <c r="H259" t="s">
         <v>1690</v>
       </c>
-      <c r="H259" t="s">
+      <c r="I259" t="s">
         <v>1691</v>
       </c>
-      <c r="I259" t="s">
-        <v>1692</v>
-      </c>
       <c r="J259" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="260" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14812,25 +14831,25 @@
         <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D260" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F260" t="s">
         <v>1693</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>1694</v>
       </c>
-      <c r="G260" t="s">
+      <c r="H260" t="s">
         <v>1695</v>
       </c>
-      <c r="H260" t="s">
+      <c r="I260" t="s">
         <v>1696</v>
       </c>
-      <c r="I260" t="s">
+      <c r="J260" t="s">
         <v>1697</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="261" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14841,25 +14860,25 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D261" t="s">
         <v>1699</v>
       </c>
-      <c r="D261" t="s">
+      <c r="F261" t="s">
         <v>1700</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>1701</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="s">
         <v>1702</v>
       </c>
-      <c r="H261" t="s">
+      <c r="I261" t="s">
         <v>1703</v>
       </c>
-      <c r="I261" t="s">
+      <c r="J261" t="s">
         <v>1704</v>
-      </c>
-      <c r="J261" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="262" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14870,25 +14889,25 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D262" t="s">
         <v>1706</v>
       </c>
-      <c r="D262" t="s">
+      <c r="F262" t="s">
         <v>1707</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>1708</v>
       </c>
-      <c r="G262" t="s">
+      <c r="H262" t="s">
         <v>1709</v>
       </c>
-      <c r="H262" t="s">
+      <c r="I262" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J262" t="s">
         <v>1710</v>
-      </c>
-      <c r="I262" t="s">
-        <v>1454</v>
-      </c>
-      <c r="J262" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="263" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14905,19 +14924,19 @@
         <v>954</v>
       </c>
       <c r="F263" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G263" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H263" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I263" t="s">
         <v>1713</v>
       </c>
-      <c r="I263" t="s">
+      <c r="J263" t="s">
         <v>1714</v>
-      </c>
-      <c r="J263" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="264" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14928,25 +14947,25 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D264" t="s">
         <v>1716</v>
       </c>
-      <c r="D264" t="s">
+      <c r="F264" t="s">
         <v>1717</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1718</v>
       </c>
       <c r="G264" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H264" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I264" t="s">
         <v>1719</v>
       </c>
-      <c r="I264" t="s">
+      <c r="J264" t="s">
         <v>1720</v>
-      </c>
-      <c r="J264" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="265" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14957,25 +14976,25 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D265" t="s">
         <v>1722</v>
       </c>
-      <c r="D265" t="s">
+      <c r="F265" t="s">
         <v>1723</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1724</v>
       </c>
       <c r="G265" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H265" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I265" t="s">
         <v>1725</v>
       </c>
-      <c r="I265" t="s">
+      <c r="J265" t="s">
         <v>1726</v>
-      </c>
-      <c r="J265" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="266" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -14986,25 +15005,25 @@
         <v>4</v>
       </c>
       <c r="C266" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D266" t="s">
         <v>1728</v>
       </c>
-      <c r="D266" t="s">
+      <c r="F266" t="s">
         <v>1729</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1730</v>
       </c>
       <c r="G266" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H266" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I266" t="s">
         <v>1731</v>
       </c>
-      <c r="I266" t="s">
+      <c r="J266" t="s">
         <v>1732</v>
-      </c>
-      <c r="J266" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="267" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -15015,25 +15034,25 @@
         <v>5</v>
       </c>
       <c r="C267" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D267" t="s">
         <v>1734</v>
       </c>
-      <c r="D267" t="s">
+      <c r="F267" t="s">
         <v>1735</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1736</v>
       </c>
       <c r="G267" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H267" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I267" t="s">
         <v>1737</v>
       </c>
-      <c r="I267" t="s">
+      <c r="J267" t="s">
         <v>1738</v>
-      </c>
-      <c r="J267" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="268" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -15044,25 +15063,25 @@
         <v>6</v>
       </c>
       <c r="C268" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D268" t="s">
         <v>1740</v>
       </c>
-      <c r="D268" t="s">
+      <c r="F268" t="s">
         <v>1741</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1742</v>
       </c>
       <c r="G268" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H268" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I268" t="s">
         <v>1743</v>
       </c>
-      <c r="I268" t="s">
+      <c r="J268" t="s">
         <v>1744</v>
-      </c>
-      <c r="J268" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="269" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -15073,25 +15092,25 @@
         <v>7</v>
       </c>
       <c r="C269" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D269" t="s">
         <v>1746</v>
       </c>
-      <c r="D269" t="s">
+      <c r="F269" t="s">
         <v>1747</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1748</v>
       </c>
       <c r="G269" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H269" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I269" t="s">
         <v>1749</v>
       </c>
-      <c r="I269" t="s">
+      <c r="J269" t="s">
         <v>1750</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="270" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -15102,25 +15121,25 @@
         <v>8</v>
       </c>
       <c r="C270" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D270" t="s">
         <v>1752</v>
       </c>
-      <c r="D270" t="s">
+      <c r="F270" t="s">
         <v>1753</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1754</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H270" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I270" t="s">
         <v>1755</v>
       </c>
-      <c r="I270" t="s">
+      <c r="J270" t="s">
         <v>1756</v>
-      </c>
-      <c r="J270" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="271" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -15131,25 +15150,25 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D271" t="s">
         <v>1758</v>
       </c>
-      <c r="D271" t="s">
+      <c r="F271" t="s">
         <v>1759</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1760</v>
       </c>
       <c r="G271" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H271" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I271" t="s">
         <v>1761</v>
       </c>
-      <c r="I271" t="s">
+      <c r="J271" t="s">
         <v>1762</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="272" spans="1:10" customFormat="1" ht="15.75" customHeight="1">
@@ -15160,25 +15179,25 @@
         <v>10</v>
       </c>
       <c r="C272" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D272" t="s">
         <v>1764</v>
       </c>
-      <c r="D272" t="s">
+      <c r="F272" t="s">
         <v>1765</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1766</v>
       </c>
       <c r="G272" s="10" t="s">
         <v>731</v>
       </c>
       <c r="H272" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I272" t="s">
         <v>1767</v>
       </c>
-      <c r="I272" t="s">
+      <c r="J272" t="s">
         <v>1768</v>
-      </c>
-      <c r="J272" t="s">
-        <v>1769</v>
       </c>
     </row>
   </sheetData>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DBD2CA-388E-4F9B-BCAF-226A69E933D8}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B677A3-19AC-4214-BA1D-9C742FC6C3E6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="1769">
   <si>
     <t>id</t>
   </si>
@@ -6001,10 +6001,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6115,6 +6115,9 @@
       <c r="N2" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -6154,6 +6157,9 @@
       <c r="M3" s="2">
         <v>1</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -6234,6 +6240,9 @@
       <c r="N5" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -6272,6 +6281,9 @@
       <c r="N6" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -6310,6 +6322,9 @@
       <c r="N7" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -6348,6 +6363,9 @@
       <c r="N8" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -6392,6 +6410,9 @@
       <c r="N9" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -6518,6 +6539,9 @@
       <c r="L12" s="2" t="s">
         <v>768</v>
       </c>
+      <c r="O12" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -6553,6 +6577,9 @@
       <c r="L13" s="2" t="s">
         <v>765</v>
       </c>
+      <c r="O13" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -6591,6 +6618,9 @@
       <c r="N14" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O14" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -6629,6 +6659,9 @@
       <c r="N15" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O15" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -6670,6 +6703,9 @@
       <c r="N16" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O16" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
@@ -6708,6 +6744,9 @@
       <c r="N17" s="10" t="s">
         <v>842</v>
       </c>
+      <c r="O17" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -6843,9 +6882,6 @@
       <c r="O20" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
@@ -6881,6 +6917,9 @@
       <c r="L21" s="2" t="s">
         <v>775</v>
       </c>
+      <c r="O21" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="22" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
@@ -6913,6 +6952,9 @@
       <c r="K22" s="10" t="s">
         <v>922</v>
       </c>
+      <c r="O22" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
@@ -6946,6 +6988,9 @@
       <c r="K23" s="10" t="s">
         <v>929</v>
       </c>
+      <c r="O23" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
@@ -6982,6 +7027,9 @@
       <c r="M24">
         <v>1</v>
       </c>
+      <c r="O24" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P24" s="2">
         <v>0</v>
       </c>
@@ -7020,6 +7068,9 @@
       <c r="M25">
         <v>2</v>
       </c>
+      <c r="O25" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -7052,6 +7103,9 @@
       <c r="J26" t="s">
         <v>949</v>
       </c>
+      <c r="O26" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="27" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
@@ -7081,6 +7135,9 @@
       <c r="J27" t="s">
         <v>955</v>
       </c>
+      <c r="O27" s="2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="28" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
@@ -7110,6 +7167,9 @@
       <c r="J28" t="s">
         <v>961</v>
       </c>
+      <c r="O28" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P28">
         <v>0</v>
       </c>
@@ -7142,6 +7202,9 @@
       <c r="J29" t="s">
         <v>966</v>
       </c>
+      <c r="O29" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P29">
         <v>0</v>
       </c>
@@ -7181,6 +7244,9 @@
       <c r="L30" s="2" t="s">
         <v>915</v>
       </c>
+      <c r="O30" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
@@ -7220,6 +7286,9 @@
       <c r="L31" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="O31" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
@@ -7264,6 +7333,9 @@
       <c r="M32" s="2">
         <v>1</v>
       </c>
+      <c r="O32" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P32" s="2">
         <v>0</v>
       </c>
@@ -7301,6 +7373,9 @@
       </c>
       <c r="L33" s="2" t="s">
         <v>1351</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B677A3-19AC-4214-BA1D-9C742FC6C3E6}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119702B8-AA3B-41AA-A772-CB9E068F0994}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -6001,10 +6001,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6403,9 +6403,6 @@
       </c>
       <c r="L9" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>842</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119702B8-AA3B-41AA-A772-CB9E068F0994}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{101B786B-DC90-4F13-9363-B5E4E0D07C73}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1770">
   <si>
     <t>id</t>
   </si>
@@ -5670,6 +5670,9 @@
   </si>
   <si>
     <t>Teréz körút</t>
+  </si>
+  <si>
+    <t>logo\allatkert_logo.png</t>
   </si>
 </sst>
 </file>
@@ -6001,10 +6004,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6948,6 +6951,9 @@
       </c>
       <c r="K22" s="10" t="s">
         <v>922</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>1769</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>839</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{101B786B-DC90-4F13-9363-B5E4E0D07C73}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F233B4-8086-4232-BC1E-4781C0662E58}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="1771">
   <si>
     <t>id</t>
   </si>
@@ -5673,6 +5673,9 @@
   </si>
   <si>
     <t>logo\allatkert_logo.png</t>
+  </si>
+  <si>
+    <t>globalLimit</t>
   </si>
 </sst>
 </file>
@@ -6001,13 +6004,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6026,10 +6029,11 @@
     <col min="12" max="12" width="22.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="22.44140625" style="2"/>
     <col min="14" max="14" width="26.109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="22.44140625" style="2"/>
+    <col min="15" max="15" width="34.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="22.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.8">
+    <row r="1" spans="1:17" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6078,8 +6082,11 @@
       <c r="P1" s="2" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="Q1" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>856</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>626</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>578</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -6247,7 +6254,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>352</v>
       </c>
@@ -6288,7 +6295,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>216</v>
       </c>
@@ -6329,7 +6336,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>512</v>
       </c>
@@ -6370,7 +6377,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>553</v>
       </c>
@@ -6413,8 +6420,11 @@
       <c r="O9" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>558</v>
       </c>
@@ -6461,7 +6471,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>426</v>
       </c>
@@ -6505,7 +6515,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
@@ -6581,7 +6591,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>141</v>
       </c>
@@ -6622,7 +6632,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>185</v>
       </c>
@@ -6663,7 +6673,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>258</v>
       </c>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F233B4-8086-4232-BC1E-4781C0662E58}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A8F7CD-09A5-41CC-B020-A8BC9D1D82F2}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6007,10 +6007,10 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6717,7 +6717,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>309</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>778</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>787</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>788</v>
       </c>
@@ -6892,8 +6892,11 @@
       <c r="O20" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>908</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="22" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>916</v>
       </c>
@@ -6970,7 +6973,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>923</v>
       </c>
@@ -7006,7 +7009,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>930</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>937</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>944</v>
       </c>
@@ -7120,7 +7123,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="27" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>950</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="28" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>956</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>962</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>886</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>893</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>900</v>
       </c>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A8F7CD-09A5-41CC-B020-A8BC9D1D82F2}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD34AF25-FFD0-42C0-B57E-B7186C07A93D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6010,7 +6010,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6882,9 +6882,6 @@
       </c>
       <c r="L20" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>836</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD34AF25-FFD0-42C0-B57E-B7186C07A93D}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBD6CDD-375E-4106-AA7E-1DC027A4A343}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6007,10 +6007,10 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7079,7 +7079,7 @@
         <v>943</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>839</v>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBD6CDD-375E-4106-AA7E-1DC027A4A343}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0AB499-0F34-4C57-A2D1-D523A4262C09}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6890,7 +6890,7 @@
         <v>840</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1">
